--- a/data/output_excels/SEBI.xlsx
+++ b/data/output_excels/SEBI.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,6 +723,366 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEBI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Press Release</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Inauguration of SEBI’s Pavilion at the IITF, 2025 by Chairman, SEBI</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763122672135.pdf</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1763122672135.pdf</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1763122672135.pdf</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No.74/2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>"SEBI, in collaboration with market associations, has set up a pavilion named 'Bharat Ka Share Bazaar' at the 44th India International Trade Fair 2025 in New Delhi. The pavilion aims to promote investor protection, financial education, and market integrity through live demonstrations, expert talks, and interactive activities, with a focus on enhancing national financial literacy."</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>The Securities and Exchange Board of India (SEBI), along with various market associations, has established a pavilion named "Bharat Ka Share Bazaar" at the 44th India International Trade Fair (IITF) 2025, held from November 14–27, 2025, in New Delhi. The pavilion focuses on investor protection, financial education, and market integrity, featuring live demonstrations, expert talks, and interactive activities to promote financial literacy nationwide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SEBI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Press Release</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SEBI and IEPFA Conducted the third “Niveshak Shivir” at Amritsar - Proactive  Joint Initiative to Minimize Unclaimed Assets and Facilitate Investor Claims for  Unpaid Dividends and Shares</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762858201080.pdf</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1762858201080.pdf</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762858201080.pdf</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No.72/2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>"SEBI, IEPFA, and Market Infrastructure Institutions held a three-day investor event in Amritsar on Nov 1st, 2025. The focus was on assisting investors to reclaim unpaid dividends and unclaimed shares. Service desks were established for claim assistance, KYC updates, and issue resolution. A collaborative video on claiming unpaid dividends was launched. Similar events are planned for cities with substantial investor assets, including Mumbai."</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>The third "Niveshak Shivir" was jointly organized by SEBI, IEPFA, and key Market Infrastructure Institutions on November 01, 2025, in Amritsar, aiming to help investors reclaim unpaid dividends and unclaimed shares. Dedicated service desks were set up for claim assistance, KYC updates, and issue resolution. A collaborative explainer video on claiming unpaid dividends was also launched. Similar events are proposed for cities with significant unclaimed investor assets, such as Mumbai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SEBI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Press Release</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Inauguration of SEBI’s Pavilion at the IITF, 2025 by Chairman, SEBI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763122672135.pdf</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1763122672135.pdf</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1763122672135.pdf</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No.74/2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>"SEBI has launched 'Bharat Ka Share Bazaar' pavilion at the 44th IITF 2025, offering financial education and investor awareness sessions from November 14–27, 2025. This initiative is part of SEBI's ongoing commitment to market integrity and investor protection."</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>The Securities and Exchange Board of India (SEBI), in collaboration with various financial entities, has established a pavilion titled "Bharat Ka Share Bazaar" at the 44th India International Trade Fair (IITF) 2025 from November 14–27, 2025. The pavilion aims to showcase financial education and investor awareness, with interactive demonstrations and services offered. This initiative is part of SEBI's continued efforts towards market integrity and investor protection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SEBI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Press Release</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Report of the High Level Committee on Conflict of Interest, Disclosures and  related matters in respect of Members and Officials of SEBI</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762943978568.pdf</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1762943978568.pdf</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762943978568.pdf</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No. 73/2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>"The High Level Committee has submitted a report regarding conflict of interest and disclosures for SEBI Members and Officials, available on the SEBI website as of November 10, 2025. This report aims to enhance transparency and accountability within SEBI."</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>The High Level Committee has submitted a report on conflict of interest, disclosures, and related matters concerning Members and Officials of SEBI, dated November 10, 2025. The report is accessible on the SEBI website.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SEBI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Press Release</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>SEBI and IEPFA Conducted the third “Niveshak Shivir” at Amritsar - Proactive  Joint Initiative to Minimize Unclaimed Assets and Facilitate Investor Claims for  Unpaid Dividends and Shares</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762858201080.pdf</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1762858201080.pdf</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762858201080.pdf</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No.72/2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>"SEBI, IEPFA, and Market Infrastructure Institutions (MIIs) hosted a Niveshak Shivir in Amritsar on November 1, 2025. The event aims to help investors reclaim unpaid dividends and unclaimed shares, reduce the volume of unclaimed assets, and offer assistance for claim-related issues. Similar events are planned in other cities with significant unclaimed investor assets, including Mumbai."</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>The third "Niveshak Shivir" was jointly organized by SEBI, IEPFA, and key Market Infrastructure Institutions (MIIs) on November 1, 2025, in Amritsar. The event aimed to help investors reclaim unpaid dividends and unclaimed shares, reduce the volume of unclaimed assets, and provide end-to-end assistance for claim-related issues. A series of similar events are proposed in other cities with significant unclaimed investor assets, including Mumbai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SEBI</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Press Release</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>High Level Committee on “Conflict of Interest, Disclosures and related matters in respect of Members and Officials of SEBI” submits its report</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762786201875.pdf</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1762786201875.pdf</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762786201875.pdf</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No.71/2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>"The Securities and Exchange Board of India (SEBI) has proposed updates to its policies concerning conflicts of interest, disclosures, and related matters for its Members and Officials. The changes are based on recommendations from a High Level Committee consisting of six members, including retired IAS officers, bank directors, and an ex-Auditor General. The aim is to establish a strong framework for managing potential conflicts, improve disclosure requirements, and address public concerns."</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>The Securities and Exchange Board of India (SEBI) formed a High Level Committee (HLC) on March 24, 2025, to review and update policies related to conflict of interest, disclosures, and associated matters for its Members and Officials. The committee consisted of six members, including retired IAS officers, bank directors, and an ex-Auditor General. The committee submitted its report on November 10, 2025, recommending a robust framework for managing conflict of interest, disclosure requirements, and mechanisms to address public concerns.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/output_excels/SEBI.xlsx
+++ b/data/output_excels/SEBI.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Press Release" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Circulars" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Press Release" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Consulatation Paper" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Press Release</t>
+          <t>Circulars</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -504,42 +506,43 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Inauguration of SEBI’s Pavilion at the IITF, 2025 by Chairman, SEBI</t>
+          <t>Specification of the terms and conditions for Debenture Trustees for carrying out activities outside the purview of SEBI</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763122672135.pdf</t>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072855448.pdf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1763122672135.pdf</t>
+          <t>1764072855448.pdf</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1763122672135.pdf</t>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072855448.pdf</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No.74/2025</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>"The Securities and Exchange Board of India (SEBI) has launched a financial literacy initiative called 'Bharat Ka Share Bazaar' at the 44th India International Trade Fair 2025, held from November 14-27 in New Delhi. This event offers interactive exhibits, expert talks, quizzes, and demonstrations to promote investor awareness."</t>
+          <t>"SEBI has expanded the roles of debenture trustees, allowing them to undertake activities outside their regulation scope. These activities can fall under other financial sector regulators or be unregulated, fee-based, and non-fund based within the financial services sector. Debenture trustees have six months to separate these activities into distinct business units. The trustee's website must disclose unregulated activities within thirty days of this notification, and they are required to provide upfront written disclosure for all such activities."</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>The Securities and Exchange Board of India (SEBI), along with various market entities, has established a pavilion titled "Bharat Ka Share Bazaar" at the 44th India International Trade Fair (IITF) 2025. This event takes place from November 14–27, 2025, in New Delhi. The aim is to promote financial literacy and investor awareness through interactive exhibits, expert talks, quizzes, and demonstrations. The inauguration took place on November 14, 2025.</t>
+          <t>On November 25, 2025, amendments to SEBI (Debenture Trustees) Regulations, 1993 were notified, allowing debenture trustees to engage in activities outside SEBI's purview. These activities can be under other financial sector regulators or unregulated, fee-based, non-fund based, and related to the financial services sector. Debenture trustees have six months to transfer such activities to separate business units. The trustee must maintain a Chinese Wall separation between SEBI-regulated and unregulated activities, with distinct staff, grievance redressal mechanisms, and records for non-SEBI activities. The trustee's website should disclose unregulated activities within thirty days of this circular.
+The DT (Debenture Trustee) must disclose on its website the activities not regulated by SEBI within 30 days of this circular and for any other financial sector-regulated activities, specify the relevant FSR. All non-SEBI regulated activities require upfront written disclosure to stakeholders, including clients and beneficiaries. For ongoing arrangements, compliance reports are to be submitted within six months of this circular. SBUs of DTs regulated by RBI must also comply with these terms. This circular comes into effect immediately to protect investors in securities and regulate the securities market, as authorized under Section 11(1) of Act, 1992 and Regulation 2A of SEBI (Debenture Trustees) Regulations, 1993. The circular is available on SEBI's website.</t>
         </is>
       </c>
     </row>
@@ -551,7 +554,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Press Release</t>
+          <t>Circulars</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -564,42 +567,43 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Report of the High Level Committee on Conflict of Interest, Disclosures and  related matters in respect of Members and Officials of SEBI</t>
+          <t>Modifications to Chapter IV of the Master Circular for Debenture Trustees dated August 13, 2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762943978568.pdf</t>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072737631.pdf</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1762943978568.pdf</t>
+          <t>1764072737631.pdf</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762943978568.pdf</t>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072737631.pdf</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>No. 73/2025</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>"The High Level Committee has submitted a report on conflict of interest and related matters for SEBI members and officials, now accessible on the SEBI website. This report addresses disclosures and related issues."</t>
+          <t>"SEBI has updated the Debenture Trustees Regulations, clarifying how a Recovery Expense Fund can be used by simplifying consent and reimbursement processes. The new guidelines specify eligible activities like legal fees, asset recovery services, and court applications that no longer require prior approval from debenture holders. However, approval is still needed for other purposes as outlined in the guidelines. Affected parties include Registered Debenture Trustees, Issuers of debt securities, Recognized Stock Exchanges, and Recognized Depositories. Debenture Trustees representing more than 50% of outstanding debt securities must now maintain accounts of funds received from the REF and provide annual updates on fund utilization to debenture holders."</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>The High Level Committee submitted a report on conflict of interest, disclosures, and related matters regarding Members and Officials of SEBI on November 10, 2025, which is now available on the SEBI website for public access.</t>
+          <t>The Securities and Exchange Board of India (SEBI) has made modifications to Chapter IV of the Debenture Trustees regulations dated August 13, 2025. These changes clarify the purposes for which a Recovery Expense Fund (REF) can be utilized, easing consent and reimbursement processes for Debenture Trustees. The new guidelines detail specific activities that can be funded from the REF, such as legal fees, asset recovery services, and court applications, without requiring prior approval from debenture holders for these uses. Approval is still required for any other purposes specified in the guidelines. The changes come into effect immediately. Affected parties include Registered Debenture Trustees, Issuers of debt securities, Recognized Stock Exchanges, and Recognized Depositories.
+A Debenture Trustee representing holders of more than 50% of outstanding debt securities' duties have been updated to include maintaining accounts of funds received from REF and annual updates to debenture holders on fund utilization. These changes are immediate, as per regulatory powers conferred under various SEBI regulations and Act, 1992. The details can be found on SEBI's website.</t>
         </is>
       </c>
     </row>
@@ -611,7 +615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Press Release</t>
+          <t>Circulars</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -624,462 +628,397 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SEBI and IEPFA Conducted the third “Niveshak Shivir” at Amritsar - Proactive  Joint Initiative to Minimize Unclaimed Assets and Facilitate Investor Claims for  Unpaid Dividends and Shares</t>
+          <t>Timeline for submission of information by the Issuer to the Debenture Trustee(s)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762858201080.pdf</t>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072664415.pdf</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1762858201080.pdf</t>
+          <t>1764072664415.pdf</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762858201080.pdf</t>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072664415.pdf</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>No.72/2025</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>"SEBI, IEPFA, and Market Infrastructure Institutions have initiated a series of events called 'Niveshak Shivir' to help investors reclaim unpaid dividends and shares that have remained unclaimed for over six years. These events offer end-to-end assistance, address claim issues, and feature dedicated service desks and kiosks for direct interaction with officials. Cities with significant unclaimed investor assets, such as Mumbai, will also host these events. An explanatory video on the process of claiming unpaid dividends has been launched to assist investors."</t>
+          <t>"Effective from Q4 2025, issuers of debt securities and recognized stock exchanges will regularly submit reports and certificates to Debenture Trustees. These submissions are aimed at enhancing the efficiency of Debenture Trustees' functions and protecting investor interests in securities, as outlined by Section 11(1) of the Act, 1992. This requirement applies to both issuers and recognized stock exchanges."</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>The joint initiative "Niveshak Shivir" by SEBI, IEPFA, and key Market Infrastructure Institutions aims to help investors reclaim unpaid dividends and shares that have remained unclaimed for over six years. The event, held in Amritsar on November 1st, 2025, provided end-to-end assistance, addressed claim issues, and featured dedicated service desks and kiosks for direct interaction with officials. SEBI and IEPFA plan to conduct similar events in cities with significant unclaimed investor assets, such as Mumbai. They also launched an explanatory video on the process of claiming unpaid dividends.</t>
+          <t>On November 25, 2025, a regulatory action requires issuers of debt securities, along with recognized stock exchanges, to submit certain reports and certificates to Debenture Trustees on a regular basis. The submission deadline varies from quarterly within 60 days, half-yearly within 60 days, annual within 60 days, and once in three years within 60 days post the respective periods' end. This action is aimed at enabling Debenture Trustees to perform their functions efficiently and protect investor interests in securities, as per Section 11(1) of the Act, 1992, and multiple regulations. The new provisions will take effect from the quarter ended December 31, 2025.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Verticals</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SubCategory</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>IssueDate</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PDF_URL</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>File Name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Indexing</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>EmbeddingText</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>SEBI</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Press Release</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C2" t="n">
         <v>2025</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>November</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>High Level Committee on “Conflict of Interest, Disclosures and related matters in respect of Members and Officials of SEBI” submits its report</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762786201875.pdf</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1762786201875.pdf</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762786201875.pdf</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>No.71/2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>"SEBI has formed a committee, led by Shri Pratyush Sinha (Retd.) and comprising experts such as Uday Kotak, G Mahalingam, Sarit Jafa, Injeti Srinivas, and Prof. R Narayanaswamy, to address conflict-of-interest issues, disclosures, and related matters among its members. The committee submitted its report on November 10, 2025, aimed at enhancing transparency and integrity within SEBI."</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>The Securities and Exchange Board of India (SEBI) constituted a High Level Committee (HLC) on March 24, 2025, to review and address conflict-of-interest issues, disclosures, and related matters for its members. The committee, chaired by Shri Pratyush Sinha (Retd.), includes experts like Uday Kotak, G Mahalingam, Sarit Jafa, Injeti Srinivas, and Prof. R Narayanaswamy. The HLC submitted its report on November 10, 2025, at SEBI Bhavan, Mumbai.</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Memorandum of Understanding between Securities and Exchange Board of  India (SEBI) and National Forensic Sciences University (NFSU)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764065882362.pdf</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1764065882362.pdf</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1764065882362.pdf</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No.76/2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>"SEBI has entered into a partnership with the National Forensic Sciences University, focusing on capacity building in digital forensics, forensic accounting, cybersecurity, and skills training for SEBI officers. The collaboration includes specialized courses, training programs, workshops, potential infrastructure development at SEBI premises, and knowledge sharing under applicable laws."</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SEBI (Securities and Exchange Board of India) has entered into an MoU with NFSU (National Forensic Sciences University) on November 24, 2025. The collaboration aims to enhance capacities in areas like digital forensics, forensic accounting, cybersecurity, and skill development for SEBI officers through specialized courses, training programs, workshops, and potential infrastructure development at SEBI premises. Knowledge sharing is also agreed upon under applicable laws.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Verticals</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SubCategory</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>IssueDate</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PDF_URL</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>File Name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Indexing</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>EmbeddingText</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>SEBI</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Press Release</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Consulatation Paper</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2025</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>November</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Inauguration of SEBI’s Pavilion at the IITF, 2025 by Chairman, SEBI</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763122672135.pdf</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1763122672135.pdf</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1763122672135.pdf</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>No.74/2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>"SEBI, in collaboration with market associations, has set up a pavilion named 'Bharat Ka Share Bazaar' at the 44th India International Trade Fair 2025 in New Delhi. The pavilion aims to promote investor protection, financial education, and market integrity through live demonstrations, expert talks, and interactive activities, with a focus on enhancing national financial literacy."</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>The Securities and Exchange Board of India (SEBI), along with various market associations, has established a pavilion named "Bharat Ka Share Bazaar" at the 44th India International Trade Fair (IITF) 2025, held from November 14–27, 2025, in New Delhi. The pavilion focuses on investor protection, financial education, and market integrity, featuring live demonstrations, expert talks, and interactive activities to promote financial literacy nationwide.</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ease of doing investment - Review of simplification of procedure and standardization of formats of documents for issuance of duplicate securities certificates.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764065506896.pdf</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1764065506896.pdf</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1764065506896.pdf</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>"SEBI has updated the process for issuing duplicate share certificates, increasing the simplified documentation limit from Rs. 5 Lakhs to Rs. 10 Lakhs and standardizing documents into a single Affidavit-cum-Indemnity bond. For securities worth more than Rs. 10 Lakhs, additional documentation is required. Listed companies are now responsible for publishing necessary advertisements when securities held in physical form are lost to encourage dematerialization. This change applies to all investors and stakeholders."</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>The Securities and Exchange Board of India (SEBI) proposes to amend the process for issuing duplicate securities certificates, affecting investors and Registrars to an Issue and Share Transfer Agents (RTAs). Key changes include increasing the documentation threshold from Rs. 5 Lakhs to Rs. 10 Lakhs, standardizing documents by merging Affidavit and Indemnity bond into a single form, and having listed companies issue the necessary newspaper advertisements instead of investors. The proposed changes are in response to feedback received from investors and aim to simplify the process and reduce costs. No specific deadline has been mentioned in the text provided.
+SEBI has proposed to simplify the process of issuing duplicate share certificates, increasing the limit for simplified documentation from Rs. 5 Lakhs to Rs. 10 Lakhs and prescribing a single and standardized Affidavit-cum-Indemnity bond. The new procedure will apply if the value of securities does not exceed Rs. 10 Lakhs. For securities worth more than Rs. 10 Lakhs, additional documentation is required. Public comments are invited on this proposal latest by December. Details can be found at https://www.sebi.gov.in/.
+SEBI has issued a circular effective immediately, requiring listed companies to publish an advertisement in widely circulated newspapers when securities held in physical form are lost. This action aims to facilitate easier investments and restore investor rights by increasing dematerialization. The revised provisions also apply to ongoing requests for duplicate securities. Form-A affidavit-cum-indemnity is provided for the issuance of duplicate securities, requiring execution in the presence of a Public Notary and a non-judicial stamp paper.
+The document outlines a policy action: Holders of securities are required to indemnify the company against any losses, costs, claims, etc. resulting from the issuance of duplicate securities at their request. Failure to promptly surrender original security certificates may lead to civil and/or criminal proceedings. The agreement is binding for all time. This policy affects holders of securities who choose to issue duplicate securities. There's no specified deadline mentioned in this section.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>SEBI</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Press Release</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Consulatation Paper</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2025</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>November</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SEBI and IEPFA Conducted the third “Niveshak Shivir” at Amritsar - Proactive  Joint Initiative to Minimize Unclaimed Assets and Facilitate Investor Claims for  Unpaid Dividends and Shares</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762858201080.pdf</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1762858201080.pdf</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762858201080.pdf</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>No.72/2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>"SEBI, IEPFA, and Market Infrastructure Institutions held a three-day investor event in Amritsar on Nov 1st, 2025. The focus was on assisting investors to reclaim unpaid dividends and unclaimed shares. Service desks were established for claim assistance, KYC updates, and issue resolution. A collaborative video on claiming unpaid dividends was launched. Similar events are planned for cities with substantial investor assets, including Mumbai."</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>The third "Niveshak Shivir" was jointly organized by SEBI, IEPFA, and key Market Infrastructure Institutions on November 01, 2025, in Amritsar, aiming to help investors reclaim unpaid dividends and unclaimed shares. Dedicated service desks were set up for claim assistance, KYC updates, and issue resolution. A collaborative explainer video on claiming unpaid dividends was also launched. Similar events are proposed for cities with significant unclaimed investor assets, such as Mumbai.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SEBI</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Press Release</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Inauguration of SEBI’s Pavilion at the IITF, 2025 by Chairman, SEBI</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763122672135.pdf</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1763122672135.pdf</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1763122672135.pdf</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>No.74/2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>"SEBI has launched 'Bharat Ka Share Bazaar' pavilion at the 44th IITF 2025, offering financial education and investor awareness sessions from November 14–27, 2025. This initiative is part of SEBI's ongoing commitment to market integrity and investor protection."</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>The Securities and Exchange Board of India (SEBI), in collaboration with various financial entities, has established a pavilion titled "Bharat Ka Share Bazaar" at the 44th India International Trade Fair (IITF) 2025 from November 14–27, 2025. The pavilion aims to showcase financial education and investor awareness, with interactive demonstrations and services offered. This initiative is part of SEBI's continued efforts towards market integrity and investor protection.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SEBI</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Press Release</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Report of the High Level Committee on Conflict of Interest, Disclosures and  related matters in respect of Members and Officials of SEBI</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762943978568.pdf</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1762943978568.pdf</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762943978568.pdf</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>No. 73/2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>"The High Level Committee has submitted a report regarding conflict of interest and disclosures for SEBI Members and Officials, available on the SEBI website as of November 10, 2025. This report aims to enhance transparency and accountability within SEBI."</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>The High Level Committee has submitted a report on conflict of interest, disclosures, and related matters concerning Members and Officials of SEBI, dated November 10, 2025. The report is accessible on the SEBI website.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SEBI</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Press Release</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>SEBI and IEPFA Conducted the third “Niveshak Shivir” at Amritsar - Proactive  Joint Initiative to Minimize Unclaimed Assets and Facilitate Investor Claims for  Unpaid Dividends and Shares</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762858201080.pdf</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1762858201080.pdf</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762858201080.pdf</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>No.72/2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>"SEBI, IEPFA, and Market Infrastructure Institutions (MIIs) hosted a Niveshak Shivir in Amritsar on November 1, 2025. The event aims to help investors reclaim unpaid dividends and unclaimed shares, reduce the volume of unclaimed assets, and offer assistance for claim-related issues. Similar events are planned in other cities with significant unclaimed investor assets, including Mumbai."</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>The third "Niveshak Shivir" was jointly organized by SEBI, IEPFA, and key Market Infrastructure Institutions (MIIs) on November 1, 2025, in Amritsar. The event aimed to help investors reclaim unpaid dividends and unclaimed shares, reduce the volume of unclaimed assets, and provide end-to-end assistance for claim-related issues. A series of similar events are proposed in other cities with significant unclaimed investor assets, including Mumbai.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SEBI</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Press Release</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>High Level Committee on “Conflict of Interest, Disclosures and related matters in respect of Members and Officials of SEBI” submits its report</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1762786201875.pdf</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1762786201875.pdf</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1762786201875.pdf</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>No.71/2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>"The Securities and Exchange Board of India (SEBI) has proposed updates to its policies concerning conflicts of interest, disclosures, and related matters for its Members and Officials. The changes are based on recommendations from a High Level Committee consisting of six members, including retired IAS officers, bank directors, and an ex-Auditor General. The aim is to establish a strong framework for managing potential conflicts, improve disclosure requirements, and address public concerns."</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>The Securities and Exchange Board of India (SEBI) formed a High Level Committee (HLC) on March 24, 2025, to review and update policies related to conflict of interest, disclosures, and associated matters for its Members and Officials. The committee consisted of six members, including retired IAS officers, bank directors, and an ex-Auditor General. The committee submitted its report on November 10, 2025, recommending a robust framework for managing conflict of interest, disclosure requirements, and mechanisms to address public concerns.</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ease of investments and ease of doing business measures - Review of the Facility for Basic Services Demat Account (BSDA) for Financial Inclusion.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763983154863.pdf</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1763983154863.pdf</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1763983154863.pdf</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No. CIR/MRD/DP/20/2010</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>"SEBI has revised its demat account policy, effective immediately. Key changes include excluding Zero Coupon Zero Principal bonds and delisted securities from determining eligibility for Basic Services Demat Accounts (BSDA), while allowing quarterly reassessment of beneficiary owners' eligibility. Additionally, beneficiaries can now consent to a regular demat account through alternative channels. This move aims to protect investor interests and regulate the securities market."</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>The Securities and Exchange Board of India (SEBI) has proposed modifications to the "Facility for Basic Services Demat Account" (BSDA), as outlined in circular no. SEBI/HO/MIRSD/MIRSD-PoD1/P/CIR/2024/91 dated June 28, 2024. The changes aim to improve investment ease and doing business.
+Two key proposals include:
+1. Excluding Zero Coupon Zero Principal (ZCZP) bonds from calculations determining BSDA eligibility, as their non-transferable and non-tradable nature can artificially inflate portfolio value.
+2. Treating delisted securities equally to suspended securities in BSDA valuation, due to the lack of active trading, transparent price discovery, and liquidity for both types of securities. Illiquid securities' last closing price will be considered for determining BSDA eligibility. No specific deadline for these changes was mentioned in the text provided.
+Proposed changes for ease of business:
+1. Illiquid securities' last closing price may be used to determine BSDA eligibility.
+2. The reassessment of BSDA eligibility for existing beneficial owners will shift from end of billing cycle to a quarterly basis.
+3. BO consent for opting out of BSDA can now be submitted through authenticated means, not just email-id registered with the DP.
+Comments on the draft circular can be submitted by [link](https://www.sebi.gov.in/sebiweb/publiccommentv2/PublicCommentAction.do?doPublicComments=yes). For technical issues, email consultationMIRSD@sebi.gov.in with the subject as stated.
+SEBI has issued a draft circular dated DD-MM-YYYY, reviewing the Facility for Basic Services Demat Account (BSDA) for Financial Inclusion. Key changes include excluding Zero Coupon Zero Principal bonds and delisted securities when calculating account value for BSDA eligibility, allowing depository participants to reassess beneficiary owners' eligibility quarterly, and providing an option for beneficiaries to consent to a regular demat account through alternative channels. The changes are effective immediately.
+The Securities and Exchange Board of India (SEBI) has updated its policy regarding demat accounts, effective immediately. For regular users, the last closing price of illiquid securities may be considered. However, for suspended, delisted securities, and Zero Coupon Zero Principal bonds, their value will not be considered when determining eligibility of a demat account as BSDA. Notably, this updated criteria does not apply to promoter individuals. This circular has been issued to protect investor interests and regulate the securities market, as per powers conferred under sections 11 (1) of the Act, 1992 and section 19 of the Depositories Act, 1996. The full text can be found on SEBI's website at www.sebi.gov.in.</t>
         </is>
       </c>
     </row>

--- a/data/output_excels/SEBI.xlsx
+++ b/data/output_excels/SEBI.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Circulars" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Press Release" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Consulatation Paper" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Consulatation Paper" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Master circular" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,32 +501,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Specification of the terms and conditions for Debenture Trustees for carrying out activities outside the purview of SEBI</t>
+          <t>Minimum information to be provided to the Audit Committee and Shareholders for approval of Related Party Transactions</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072855448.pdf</t>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760356560260.pdf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1764072855448.pdf</t>
+          <t>1760356560260.pdf</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072855448.pdf</t>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/October/1760356560260.pdf</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -536,134 +536,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>"SEBI has expanded the roles of debenture trustees, allowing them to undertake activities outside their regulation scope. These activities can fall under other financial sector regulators or be unregulated, fee-based, and non-fund based within the financial services sector. Debenture trustees have six months to separate these activities into distinct business units. The trustee's website must disclose unregulated activities within thirty days of this notification, and they are required to provide upfront written disclosure for all such activities."</t>
+          <t>"SEBI has relaxed the requirements for approving related party transactions by listed entities from September 12, 2025. This change aims to facilitate ease of doing business and applies to transactions below 1% of annual consolidated turnover or INR 10 crores. Specific information requirements have been outlined in SEBI's recent circular, available on their website. Listed entities must comply with the specified format and RPT Industry Standards for certain sections of LODR Regulations. The circular also outlines additional details required for shareholder approval of related party transactions."</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>On November 25, 2025, amendments to SEBI (Debenture Trustees) Regulations, 1993 were notified, allowing debenture trustees to engage in activities outside SEBI's purview. These activities can be under other financial sector regulators or unregulated, fee-based, non-fund based, and related to the financial services sector. Debenture trustees have six months to transfer such activities to separate business units. The trustee must maintain a Chinese Wall separation between SEBI-regulated and unregulated activities, with distinct staff, grievance redressal mechanisms, and records for non-SEBI activities. The trustee's website should disclose unregulated activities within thirty days of this circular.
-The DT (Debenture Trustee) must disclose on its website the activities not regulated by SEBI within 30 days of this circular and for any other financial sector-regulated activities, specify the relevant FSR. All non-SEBI regulated activities require upfront written disclosure to stakeholders, including clients and beneficiaries. For ongoing arrangements, compliance reports are to be submitted within six months of this circular. SBUs of DTs regulated by RBI must also comply with these terms. This circular comes into effect immediately to protect investors in securities and regulate the securities market, as authorized under Section 11(1) of Act, 1992 and Regulation 2A of SEBI (Debenture Trustees) Regulations, 1993. The circular is available on SEBI's website.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SEBI</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Circulars</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Modifications to Chapter IV of the Master Circular for Debenture Trustees dated August 13, 2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072737631.pdf</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1764072737631.pdf</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072737631.pdf</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>"SEBI has updated the Debenture Trustees Regulations, clarifying how a Recovery Expense Fund can be used by simplifying consent and reimbursement processes. The new guidelines specify eligible activities like legal fees, asset recovery services, and court applications that no longer require prior approval from debenture holders. However, approval is still needed for other purposes as outlined in the guidelines. Affected parties include Registered Debenture Trustees, Issuers of debt securities, Recognized Stock Exchanges, and Recognized Depositories. Debenture Trustees representing more than 50% of outstanding debt securities must now maintain accounts of funds received from the REF and provide annual updates on fund utilization to debenture holders."</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>The Securities and Exchange Board of India (SEBI) has made modifications to Chapter IV of the Debenture Trustees regulations dated August 13, 2025. These changes clarify the purposes for which a Recovery Expense Fund (REF) can be utilized, easing consent and reimbursement processes for Debenture Trustees. The new guidelines detail specific activities that can be funded from the REF, such as legal fees, asset recovery services, and court applications, without requiring prior approval from debenture holders for these uses. Approval is still required for any other purposes specified in the guidelines. The changes come into effect immediately. Affected parties include Registered Debenture Trustees, Issuers of debt securities, Recognized Stock Exchanges, and Recognized Depositories.
-A Debenture Trustee representing holders of more than 50% of outstanding debt securities' duties have been updated to include maintaining accounts of funds received from REF and annual updates to debenture holders on fund utilization. These changes are immediate, as per regulatory powers conferred under various SEBI regulations and Act, 1992. The details can be found on SEBI's website.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SEBI</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Circulars</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Timeline for submission of information by the Issuer to the Debenture Trustee(s)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764072664415.pdf</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1764072664415.pdf</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/November/1764072664415.pdf</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>"Effective from Q4 2025, issuers of debt securities and recognized stock exchanges will regularly submit reports and certificates to Debenture Trustees. These submissions are aimed at enhancing the efficiency of Debenture Trustees' functions and protecting investor interests in securities, as outlined by Section 11(1) of the Act, 1992. This requirement applies to both issuers and recognized stock exchanges."</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>On November 25, 2025, a regulatory action requires issuers of debt securities, along with recognized stock exchanges, to submit certain reports and certificates to Debenture Trustees on a regular basis. The submission deadline varies from quarterly within 60 days, half-yearly within 60 days, annual within 60 days, and once in three years within 60 days post the respective periods' end. This action is aimed at enabling Debenture Trustees to perform their functions efficiently and protect investor interests in securities, as per Section 11(1) of the Act, 1992, and multiple regulations. The new provisions will take effect from the quarter ended December 31, 2025.</t>
+          <t>SEBI has approved a proposal for relaxation in the minimum information required for approval of related party transactions by listed entities, effective from September 12, 2025. This change aims to facilitate ease of doing business. The new requirements only apply to transactions that do not exceed 1% of annual consolidated turnover or INR 10 crores (whichever is lower), and specific information requirements have been outlined in SEBI's Circular dated June 26, 2025 and Annexure-13A.
+This section details an exemption for related party transactions not exceeding Rs. One Crore during a financial year, as per the RPT Industry Standards. From the effective date of this circular, listed entities must comply with the specified format and RPT Industry Standards for Part A and Part B of Section III-B of LODR Regulations. This circular takes immediate effect and is available on SEBI's website. The document also outlines minimum information requirements for audit committee approval and shareholder approval of related party transactions.
+Shareholders are requested to approve proposed Related Party Transactions (RPT). Alongside the requirements under the Companies Act 2013, the notice must provide additional details: management's summary, justification for transaction benefits, specifics on loans/investments, valuation report availability, counter-party turnover representation, and other relevant information. No deadlines are specified in this text.</t>
         </is>
       </c>
     </row>
@@ -756,7 +636,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Press Release</t>
+          <t>Consulatation Paper</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -764,47 +644,54 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Memorandum of Understanding between Securities and Exchange Board of  India (SEBI) and National Forensic Sciences University (NFSU)</t>
+          <t>Consultation paper on proposed amendment to certain provisions of SEBI (LODR) Regulations, 2015 to facilitate transfer of securities transferred prior to April 1, 2019 and simplify the process of dematerialization of shares</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764065882362.pdf</t>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760699641194.pdf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1764065882362.pdf</t>
+          <t>1760699641194.pdf</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/November/1764065882362.pdf</t>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1760699641194.pdf</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No.76/2025</t>
+          <t>No. 12/2019</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>"SEBI has entered into a partnership with the National Forensic Sciences University, focusing on capacity building in digital forensics, forensic accounting, cybersecurity, and skills training for SEBI officers. The collaboration includes specialized courses, training programs, workshops, potential infrastructure development at SEBI premises, and knowledge sharing under applicable laws."</t>
+          <t>"SEBI has proposed amendments to simplify the dematerialization process for securities transferred before April 1, 2019. A special window is open from July 7, 2025, to January 6, 2026, for re-lodging transfer deeds. The proposal also aims to eliminate the need for a Letter of Confirmation, reducing unnecessary steps and inconvenience for investors. Public comments are invited by November 7, 2025."</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SEBI (Securities and Exchange Board of India) has entered into an MoU with NFSU (National Forensic Sciences University) on November 24, 2025. The collaboration aims to enhance capacities in areas like digital forensics, forensic accounting, cybersecurity, and skill development for SEBI officers through specialized courses, training programs, workshops, and potential infrastructure development at SEBI premises. Knowledge sharing is also agreed upon under applicable laws.</t>
+          <t>SEBI has proposed an amendment to Regulation 40(1) regarding the transfer of securities, aimed at facilitating the transfer of securities transferred prior to April 1, 2019. This amendment is intended to simplify the process of dematerialization of securities. A special window for re-lodgement of transfer deeds has been opened from July 7, 2025, to January 6, 2026, to address cases where transfer deeds were previously rejected or returned due to deficiencies, and was extended due to investor requests and panel recommendations.
+The document discusses a proposed amendment to Regulation 40(1) of LODR Regulations. This change aims to facilitate investors who executed transfer deeds before April 1, 2019, to get physical securities transferred and subsequently dematerialised. The proposal includes an exception for these investors, with a sunset clause to ensure maximum dematerialisation. A circular will be issued for the amendment's implementation. Additionally, there's a proposal to eliminate the need for a Letter of Confirmation (LOC) for investor service requests. This change would allow securities to be issued only in dematerialised form, with the RTA/listed company verifying and processing service requests and issuing LOCs within 30 days. The LOC is valid for 120 days from the date of issue. These changes are proposed to take effect after June 7, 2025, and will be in place until a specified sunset period.
+The regulatory proposal aims to streamline the dematerialization process of securities by eliminating the issuance of Letter of Confirmation (LOC). Instead, depositories will develop a system for RTAs/listed entities to credit securities directly to investors' demat accounts after due diligence. This change is intended to reduce unnecessary steps and inconvenience for investors, with a deadline for public comments on the proposal by November 7, 2025.
+Proposal to amend certain provisions of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015 is introduced. This affects the transfer of securities, including requirements for mandatory dematerialization, identity verification, signature verification, and advertisement for objections. Public comments are invited by 07-11-2025 through the provided link. In case of technical issues, emails can be sent to consultationMIRSD@sebi.gov.in. The proposal was issued on 17-10-2025.
+Regulatory action: Amendment for Transfer-cum-Transmission cases where transfer deeds were executed before April 1, 2019 but not lodged, and the transferee has passed away.
+Impacted parties: Listed entities, Registered Transfer Agents (RTA), claimants, and transferors.
+Critical dates: Documents must be submitted by June 23, 2025; securities will be under lock-in for one year from the date of registration of transfer, and information related to transfers will be disclosed on company and stock exchange websites for six months from the date of transfer.
+Regulatory document outlines an indemnity agreement between a company (M/s___________) and a buyer (I/We), effective under the Companies Act, 1956 and 2013. The agreement concerns securities purchased from sellers Mr. _______________ and ______________. To transfer securities into their name(s), the buyer has submitted the necessary documents with the Company/RTA. In exchange for this transfer approval, the buyer agrees to indemnify the company and its management, officers, staff, and the RTA from any harm, loss, damage, claims, demands, suits, actions, litigation, proceedings, costs, charges, or expenses that may arise as a result of the transfer. This indemnity bond is equivalent to the value of the shares at the prevailing market price with all accrued benefits. The agreement binds the buyer's legal heirs, successors, administrators, and assigns. Signed by the Indemnifier in the presence of a Magistrate/Notary Public and witnesses on the specified date and place.</t>
         </is>
       </c>
     </row>
@@ -819,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,7 +784,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Consulatation Paper</t>
+          <t>Master circular</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -905,120 +792,138 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ease of doing investment - Review of simplification of procedure and standardization of formats of documents for issuance of duplicate securities certificates.</t>
+          <t>Master Circular for issue and listing of Non-convertible Securities, Securitised Debt Instruments, Security Receipts, Municipal Debt Securities and Commercial Paper</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1764065506896.pdf</t>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760532257519.pdf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1764065506896.pdf</t>
+          <t>1760532257519.pdf</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1764065506896.pdf</t>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Master circular/2025/October/1760532257519.pdf</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No.
+CIR/MIRSD/4/2011, No
+0, No
+0, No.
+1, No. 1, No
+49, No. 1, No. 1, No.
+9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>"SEBI has updated the process for issuing duplicate share certificates, increasing the simplified documentation limit from Rs. 5 Lakhs to Rs. 10 Lakhs and standardizing documents into a single Affidavit-cum-Indemnity bond. For securities worth more than Rs. 10 Lakhs, additional documentation is required. Listed companies are now responsible for publishing necessary advertisements when securities held in physical form are lost to encourage dematerialization. This change applies to all investors and stakeholders."</t>
+          <t>"SEBI has issued a consolidated document updating regulations for various types of securities and debt instruments, affecting multiple financial entities such as issuers, stock exchanges, depositories, credit rating agencies, bankers, and intermediaries. Key changes include new regulations for green debt securities to combat greenwashing, provisions for the ASBA mechanism in public issues, and modifications for bond trading platforms. The document also introduces a Liquidity Window facility for investors in debt securities and updates on nominee directors, contributions to the Settlement Guarantee Fund, Legal Entity Identifier (LEI) for issuers, and Online Bond Platform Providers (OBPPs). Deadlines are provided in specific annexures."</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>The Securities and Exchange Board of India (SEBI) proposes to amend the process for issuing duplicate securities certificates, affecting investors and Registrars to an Issue and Share Transfer Agents (RTAs). Key changes include increasing the documentation threshold from Rs. 5 Lakhs to Rs. 10 Lakhs, standardizing documents by merging Affidavit and Indemnity bond into a single form, and having listed companies issue the necessary newspaper advertisements instead of investors. The proposed changes are in response to feedback received from investors and aim to simplify the process and reduce costs. No specific deadline has been mentioned in the text provided.
-SEBI has proposed to simplify the process of issuing duplicate share certificates, increasing the limit for simplified documentation from Rs. 5 Lakhs to Rs. 10 Lakhs and prescribing a single and standardized Affidavit-cum-Indemnity bond. The new procedure will apply if the value of securities does not exceed Rs. 10 Lakhs. For securities worth more than Rs. 10 Lakhs, additional documentation is required. Public comments are invited on this proposal latest by December. Details can be found at https://www.sebi.gov.in/.
-SEBI has issued a circular effective immediately, requiring listed companies to publish an advertisement in widely circulated newspapers when securities held in physical form are lost. This action aims to facilitate easier investments and restore investor rights by increasing dematerialization. The revised provisions also apply to ongoing requests for duplicate securities. Form-A affidavit-cum-indemnity is provided for the issuance of duplicate securities, requiring execution in the presence of a Public Notary and a non-judicial stamp paper.
-The document outlines a policy action: Holders of securities are required to indemnify the company against any losses, costs, claims, etc. resulting from the issuance of duplicate securities at their request. Failure to promptly surrender original security certificates may lead to civil and/or criminal proceedings. The agreement is binding for all time. This policy affects holders of securities who choose to issue duplicate securities. There's no specified deadline mentioned in this section.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SEBI</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Consulatation Paper</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ease of investments and ease of doing business measures - Review of the Facility for Basic Services Demat Account (BSDA) for Financial Inclusion.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/nov-2025/1763983154863.pdf</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1763983154863.pdf</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/November/1763983154863.pdf</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>No. CIR/MRD/DP/20/2010</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>"SEBI has revised its demat account policy, effective immediately. Key changes include excluding Zero Coupon Zero Principal bonds and delisted securities from determining eligibility for Basic Services Demat Accounts (BSDA), while allowing quarterly reassessment of beneficiary owners' eligibility. Additionally, beneficiaries can now consent to a regular demat account through alternative channels. This move aims to protect investor interests and regulate the securities market."</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>The Securities and Exchange Board of India (SEBI) has proposed modifications to the "Facility for Basic Services Demat Account" (BSDA), as outlined in circular no. SEBI/HO/MIRSD/MIRSD-PoD1/P/CIR/2024/91 dated June 28, 2024. The changes aim to improve investment ease and doing business.
-Two key proposals include:
-1. Excluding Zero Coupon Zero Principal (ZCZP) bonds from calculations determining BSDA eligibility, as their non-transferable and non-tradable nature can artificially inflate portfolio value.
-2. Treating delisted securities equally to suspended securities in BSDA valuation, due to the lack of active trading, transparent price discovery, and liquidity for both types of securities. Illiquid securities' last closing price will be considered for determining BSDA eligibility. No specific deadline for these changes was mentioned in the text provided.
-Proposed changes for ease of business:
-1. Illiquid securities' last closing price may be used to determine BSDA eligibility.
-2. The reassessment of BSDA eligibility for existing beneficial owners will shift from end of billing cycle to a quarterly basis.
-3. BO consent for opting out of BSDA can now be submitted through authenticated means, not just email-id registered with the DP.
-Comments on the draft circular can be submitted by [link](https://www.sebi.gov.in/sebiweb/publiccommentv2/PublicCommentAction.do?doPublicComments=yes). For technical issues, email consultationMIRSD@sebi.gov.in with the subject as stated.
-SEBI has issued a draft circular dated DD-MM-YYYY, reviewing the Facility for Basic Services Demat Account (BSDA) for Financial Inclusion. Key changes include excluding Zero Coupon Zero Principal bonds and delisted securities when calculating account value for BSDA eligibility, allowing depository participants to reassess beneficiary owners' eligibility quarterly, and providing an option for beneficiaries to consent to a regular demat account through alternative channels. The changes are effective immediately.
-The Securities and Exchange Board of India (SEBI) has updated its policy regarding demat accounts, effective immediately. For regular users, the last closing price of illiquid securities may be considered. However, for suspended, delisted securities, and Zero Coupon Zero Principal bonds, their value will not be considered when determining eligibility of a demat account as BSDA. Notably, this updated criteria does not apply to promoter individuals. This circular has been issued to protect investor interests and regulate the securities market, as per powers conferred under sections 11 (1) of the Act, 1992 and section 19 of the Depositories Act, 1996. The full text can be found on SEBI's website at www.sebi.gov.in.</t>
+          <t xml:space="preserve">On October 15, 2025, a consolidated document was issued to update and streamline regulations for Non-convertible Securities, Securitised Debt Instruments, Security Receipts, Municipal Debt Securities, and Commercial Paper. The update incorporates provisions from multiple circulars issued till June 30, 2025, effectively rescinding earlier ones in this area. The affected parties include various financial entities such as issuers, stock exchanges, depositories, credit rating agencies, and bankers. All relevant entities are directed to disseminate the provisions on their websites, comply with the conditions laid out, and implement the necessary systems for adherence.
+The regulatory document directs Recognized Stock Exchanges, Depositories, intermediaries, issuers, and other stakeholders to disseminate the provisions of the circular on their websites, comply with its conditions, implement necessary systems, make changes to bye-laws if needed, communicate with stakeholders, and monitor compliance. The directive is issued under various sections of the Act, 1992, SEBI regulations from 2008 to 2021, to protect investor interests and promote securities market development. This circular can be found on the SEBI website.
+Chapter IX introduces new regulations for green debt securities to combat greenwashing, affecting issuers of such securities. Deadlines or critical dates are detailed in Annexure-IX-C-A (on page 94) and Annexure-IX-C-B (on page 97). Other chapters cover various aspects of debt securities, fundraising, reporting, and listing (Chapters X-XVIII), with additional details provided in numerous annexures.
+This document introduces several regulatory updates and frameworks affecting Online Bond Platform Providers (OBPPs), trade execution platforms for certain securities, nominee directors, contributions to the Settlement Guarantee Fund, Legal Entity Identifier (LEI) for issuers, a Liquidity Window facility for investors in debt securities, and several abbreviations related to finance and securities. Deadlines or critical dates are not specified within this provided section.
+Regulatory Update: The provisions outlined in Chapter I apply to public issues of securities under SEBI NCS Regulations (2021), ILDM Regulations (2015), and SDI Regulations (2008). Investors can utilize the ASBA mechanism by writing bank account numbers or mentioning UPI ID for payments up to Rs. 5 lakh per application. Applications can be submitted through SCSBs or intermediaries, with funds being blocked upon bid submission on the stock exchange platform.
+Starting November 1, 2024 (per circular dated October 18, 2024), individual investors can submit bid-cum-application forms through various methods: intermediaries, SCSBs, or stock exchange platforms. For applications up to Rs. 5 Lakh, UPI is mandatory for funding blocking via intermediaries and optional for SCSBs and stock exchange platforms. All applications up to Rs. 5 Lakh through intermediaries must use UPI. Investors can also submit forms online using the linked online trading, demat, and bank account facility. SCSBs and intermediaries are responsible for uploading forms to the stock exchange bidding platform, providing acknowledgements, and ensuring sufficient, clearly demarcated funds for ASBA applications. SCSBs must have a separate account in another SEBI-registered SCSB for applying in public issues using the ASBA facility on their own account.
+- SEBI advises SCSBs to have separate accounts for ASBA applications and ensure available funds. (3.7)
+- Stock exchanges allow modification of bid details, provide real-time validation, update demand data, and facilitate status checking, alerts, and operational procedures. (4.1, 4.2, 7.1, 7.4)
+- UPI, an instant payment system by NPCI, allows instant money transfer between bank accounts using a unique payment address. A Sponsor Bank is appointed to push mandate collect requests and/or payment instructions of investors into the UPI. (5.2, 5.3)
+- The details of investor and bid entered on the stock exchange platform are validated with depositories in real time. Intermediaries provide guidance on UPI usage, and disclose commission, processing fees, and operational procedures. (6.1, 7.2, 7.3)
+- Character length for each field of the schedule forwarded by intermediaries is uniformly prescribed by stock exchanges, following a specific format. (8)
+- The bidding and validation process requires investors to have/create a UPI ID before application submission. (9.1a)
+The document outlines updates for UPI (Unified Payments Interface) processes in relation to stock exchange bidding. Investors are now required to have a UPI ID before submitting applications, with bid details including linked UPI ID submitted via intermediaries or stock exchange apps/websites. Upon validation of PAN and demat account details, investors will receive an SMS about their application submission.
+Post-validation, sponsor banks will request investors to authorize blocking of funds equivalent to the bid amount. This mandate must be accepted by 5 pm on the third working day following the bidding day, except for the last day when it should be done by 5 pm the next working day. Investors can modify certain details but not both DP ID or Client ID and PAN simultaneously. Mismatch bids will be processed till 1pm on T+1 day. The facility to reinitiate/resend UPI mandates is available only until 5 pm on the day of bidding.
+- Until 5 pm on the day of bidding, investors can re-initiate or resend UPI mandates for block requests. (h)
+- Upon successful validation of block requests, funds equivalent to the application amount will be blocked in investors' accounts, and status updates will be shared with sponsor banks, stock exchanges, and intermediaries for reconciliation post issue closure. (i-k, 10.1-10.4)
+- The allotment of securities occurs within five working days after issue closure, followed by credit to investors' accounts and unblocking of excess funds. (10.2, 10.5)
+- Issuers use an online platform provided by stock exchanges to receive applications for public debt securities and maintain a single escrow account. Registrars have an interface with the stock exchange platform for updates. (11.1a-c, 11.2a)
+The section outlines key actions related to the issuance of non-convertible securities, municipal debt securities, and securitized debt instruments. Stock exchanges are required to provide an online platform for applications, including UPI mode, with a cap of INR 5 lakh. Intermediaries are responsible for accurate data entry and addressing investor grievances. The issuer shall appoint a sponsor bank as a conduit between stock exchanges and NPCI. All activities from issue closure to listing must be completed within T+6 working days, as detailed in Table 2.
+Regulatory update: Listing timeline for public issues of debt securities and NCRPS reduced from T+6 to T+3 working days, effective immediately for one year, and permanently thereafter. This change aims to provide faster access to funds for issuers and investors. The revised timeline is optional during the transition period, with regulation 37 (2) of NCS Regulations applying after T+6 only in cases where T+3 was chosen but not met.
+The provisions of regulation 37 (2) will only apply after T+6 working days during the voluntary use of the T+3 listing timeline, starting from November 01, 2024. This applies to public issues of debt securities and NCRPS. Mandatory application begins on November 01, 2025. The T+3 timeline for listing must be disclosed in Offer Documents for all public issues. An indicative timeline for activities related to listing is provided, detailing various stages from bid modification to trading commencement.
+Regulatory update: The amendment requires investors, including residents and NRIs, to submit listing applications for public issues to stock exchanges. Stock exchanges will grant trading permission upon application. Trading commences on T+1 day, with specific deadlines for initiation, completion, and fund transfer by T+2 day and T+3 day. The application form details are provided in Annexure IIA and IIB for residents and NRIs respectively. Certain categories of persons, such as minors without a guardian, foreign entities, and those ineligible to contract under applicable statutory/regulatory requirements, are not eligible to participate in the issue. Application forms must be completed in full, in English, and errors in data entry are the responsibility of the applicant. Minimum application quantities are specified in the Prospectus.
+Regulatory update: Changes to application procedures for Bond issues. Affects applicants, with requirements including use of specified Bonds in applications, attestation of non-Indian language thumb impressions and signatures by Magistrates or Notaries Public, use of valid and active Demat ID, Client ID, and PAN, submission of Applications in single or joint names (with specific orders), use of ASBA Accounts for electronic applications, and rejection of applications without PAN numbers. Critical dates not specified. Applicants must ensure eligibility as per terms of the Shelf &amp; Tranche with Prospectus and applicable laws. Physical application submission to be made through SCSBs or Stock Exchange members. Application Forms must bear relevant stamps and contain correct ASBA Account numbers and UPI IDs. Revision/modification of applications during Issue Period is allowed, with original upload date considered for Allotment purposes.
+Regulatory update for bond applications: HUFs applying through Karta must specify their name in the Application Form as 'XYZ Hindu Undivided Family applying through PQR'. All applicants should select the Series of Bonds they wish to apply for. ASBA Applicants need to provide correct details of their ASBA Account and submit forms at designated branches or with syndicate members, not directly to banks or the company.
+Rejected applications include those without full payment, incorrect PAN, partnership firm submissions under individual names, applications by persons not competent to contract, GIR number instead of PAN, applications by OCBs, insufficient funds in ASBA Account, applications prohibited by SEBI or other authorities, untimely UPI Mandate approval, incomplete documents, incorrect signatures, unmatched Depository records, and applications uploaded after the Issue Closing.
+Key regulatory action: The document outlines restrictions on applications for Bond issues, affecting various applicants such as those prohibited by SEBI, those with suspended demat accounts, and debarred persons from the capital markets. It also specifies methods for allotment based on the date of application, with preference given to first-come, first-served, and proportional allotment in case of oversubscription.
+Critical dates: The Issue Closing Date is mentioned, with extensions possible by stock exchanges as applicable. The deadline for applicants to deliver their Application Forms is prescribed, along with instructions regarding the ASBA process. In case of oversubscription, the methodology for allotment includes a cutoff date one day prior to oversubscription.
+Regulatory update: In case of equal entitlement among multiple applicants, a draw of lots will determine the basis of allotment (Section iii). If an applicant has applied for multiple Series of Bonds, allocation will be proportional to each applied Series (Section e(i)). The Company retains discretion to close the Issue early (Section iv). Investors can withdraw their applications at any time. Minimum subscription is 75%, and if not met, funds are unblocked with a potential interest penalty (Terms of the Issue, Point 1). The abridged prospectus format is specified in Annexure IID of the document, with certain formatting requirements (Chapter IIB, Section 1).
+The revised format for Abridged Prospectus will apply to all public issues from October 1, 2023. Key changes include using larger font sizes, specific formatting for heads and sub-heads, tabular formats, and pointers for efficient understanding. Important information not included in designated sections can be added under 'any other information'. QR codes will be added to the documents for easy access to the prospectus. The format is detailed in Annexure – IID of the document. Cash flow conventions, disclosure of cash flows, and other related disclosures in the offer document must follow specific guidelines as per Regulation 14, Clause 3.3.34 Schedule I SEBI NCS Regulations, 2021.
+1. For non-convertible securities, coupon/dividend payments falling on Sundays or holidays will be made on the next working day, while future payment dates remain as per original schedule. (2020-25)
+2. In case of debt securities maturity, redemption proceeds will be paid on the previous working day if the maturity date falls on a Sunday or holiday. (No specific dates mentioned)
+3. A uniform methodology for interest/dividend calculations in leap years is established, with 366 days considered as the denominator. (Applicable throughout tenor of security)
+4. In case of a public issue, additional disclosures are required for provisions related to fictitious applications, board declarations, reservations, utilization details, promoter/director benefits, and material contracts. (Applicable for public issues)
+5. For NBFCs, HFCs, or PFIs, specific disclosures are needed when the objects of a public issue involve loans to group companies. (Not specified)
+Section IV of the SEBI NCS Regulations, 2021 introduces additional disclosure requirements for Non-Banking Finance Companies (NBFCs), Housing Finance Companies (HFCs), and Public Financial Institutions (PFI) in public issues. Key disclosures include details about loan policies, classifications of loans, exposures to top borrowers, and non-performing assets. NBFCs/HFCs are also required to provide portfolio summaries and disclose off-balance sheet items. These disclosures are to be made in a prescribed format and are based on draft templates for loan classifications, sectoral exposure, and loan ticket sizes. No specific deadlines were mentioned in the provided text.
+Section 4.4 introduces a requirement for loan denomination based on ticket size at origination, affecting all loans and borrowers. No specific date or deadline is mentioned.
+Section 4.5 involves classifying borrowers geographically, focusing on top 5 states with the highest AUM percentage. Again, no critical dates are provided.
+In Section 4.6, details of loans overdue and classified as non-performing according to RBI's stipulations are presented. Tables show movement of gross NPA (Non-Performing Assets) and provisions for NPA across various time periods. No specific dates or deadlines are mentioned.
+Section 4.7 provides segment-wise gross NPA, differentiating between retail and wholesale sectors, with details on A Mortgages, Gold loans, Vehicle finance, MFI, MSME, Real estate, Promoter funding, and others. No critical dates or deadlines are provided.
+Section 4.8 discusses the residual maturity profile of assets and liabilities, following RBI's format and including categories such as deposit, advances, investment, borrowing, and FCA/FCL (Foreign Currency Assets/Liabilities). No specific dates or deadlines are mentioned.
+Chapter V covers the denomination of issuance and trading of Non-convertible Securities, introducing changes for private placement of debt securities and non-convertible redeemable preference shares with a face value of either Rs. One lakh (for general cases) or Rs. Ten lakhs (for shelf placements from January 1, 2023). Various conditions and credit enhancements are also outlined in this section for securities issued on private placement basis at a face value of Rs. Ten Thousand. No critical dates or deadlines are mentioned.
+This section outlines changes to credit enhancements allowed in certain securities, effective July 03, 2024, as per a circular dated the same day. Acceptable enhancements include guaranteed bonds, partially guaranteed bonds, SBLC-backed securities, debt backed by pledge of shares or other assets, guaranteed pooled bond issuance (PBI), obligor/co-obligor structures, cross default guarantee structures, and debt backed by payment waterfall/escrow with full guarantee from a third party.
+For these enhanced securities, Credit Rating Agencies must verify that support is unconditional, irrevocable, and legally enforceable till all obligations are paid to investors, and the support provider has a lower probability of default compared to the issuer until the instruments are outstanding.
+Additionally, for a shelf placement memorandum or General Information Document valid as of the circular's effective date, issuers may now raise funds through tranche placement memorandum or Key Information Document at a face value of Rs. Ten Thousand, provided at least one Merchant Banker is appointed to carry out due diligence.
+Effective January 1, 2023 (unless otherwise stated), eligible participants on the EBP Platform include Qualified Institutional Buyers (QIBs) as per SEBI ICDR Regulations, 2018 and authorized non-QIBs by issuers. Issues of securities made through the platform now include:
+- Debt securities and NCRPS for private placements, shelf issues, or subsequent issues exceeding Rs. 20 crore in a financial year (previously Rs. 50 crore), per SEBI NCS Regulations, 2021.
+- Issues of debt securities and NCRPS by issuers existing for less than three years, regardless of issue size, as per Clause 3.3.10 c. of Schedule I to the SEBI NCS Regulations, 2021.
+- Specific non-equity instruments issued by banks/NBFCs listed under Chapter V of the SEBI NCS Regulations, 2021, regardless of issue size.
+- Private placement of securitized debt instruments, security receipts, CPs, CDs, REIT units, SM REIT units, and InvIT units by issuers desiring to access the EBP platform.
+- Issues of debt securities, NCRPS, and municipal debt securities on private placement basis below Rs. 20 crore may also utilize the EBP Platform.
+Issuers are obligated to comply with relevant laws, provide Placement Memorandum and term sheet to the platform at least two working days prior to issue opening date (three days for first-time issuers), and disclose details of issue size, green shoe portion, etc., in these documents.
+The regulatory document outlines changes effective May 16, 2025, affecting private placements of municipal debt securities or CPs/CDs. Issuers may now access the Electronic Book Building (EBP) platform for such transactions, regardless of issue size. Green shoe options are capped at five times the base issue size. Key details disclosed in the Placement Memorandum and term sheet include size, interest rate parameters, bid opening/closing dates, minimum bid lot, bidding method, allotment method, settlement method, and settlement cycle. Issuers must also disclose estimated cut-off yield at least one hour prior to bidding and provide post-issue details on the EBP platform. Participants are required to enroll with EBP for one-time access, with KYC verification handled by various parties depending on investor type. All eligible participants should have access to issue-specific information.
+Key regulatory action: Changes in bidding process for investors on Electronic Book Building (EBP) platform.
+Affects: Non-QIB investors, QIB investors, arrangers, and EBPs.
+Critical dates or deadlines: Bids must be placed between 9 a.m. to 5 p.m., one day before bidding announcement, with a minimum of one hour bidding window. Issuer can provide details of eligible participants not later than one hour before the bidding start time. Changes in bidding date or time are allowed for a maximum of two times.
+Eligible participants must confirm they do not use unfair access tools and EBPs must ensure no preferential access to any bidder. Bids cannot exceed Rs.100 crore or 5% of the base issue size (whichever is lower), with foreign portfolio investors able to bid through their custodians.
+Arrangers can bid on behalf of multiple participants, but must disclose details about proprietary bids, client bids, and consolidated bids to EBP at the time of bidding. Bidding takes place on an anonymous order-driven system, with bids made in price, coupon (in %), spread in basis points (bps), or a combination thereof. Modification or cancellation of bids is allowed during the bidding period.
+Regulatory update: The document outlines changes to bidding procedures for investors. Bidders can place multiple bids with coupon/ spread during the bidding period, which can be cancelled or modified only during the bidding period (except in the last 10 minutes). In the final 10 minutes, only downward revisions of coupon/ spread or upward modifications of price, or upward revisions in bid size are allowed. All bids have an audit trail and are disclosed on the EBP platform after bidding. The allotment and settlement amount for bidders are based on various factors including coupon specified by the issuer, coupon discovered during bidding, and pro-rata basis if multiple bids are at the cut-off coupon/ price/ spread. Anchor portions within the base issue size can be allocated by the issuer at their discretion, with limits set based on instrument rating (not exceeding 30% for AAA, 40% for AA+/AA, 50% for A+/A- and others). There is no bidding for anchor portion on the EBP platform.
+Regulatory update: The maximum allocation to anchor investors in an issue is limited to 30% (as per May 16, 2025 circular). Anchor investors must provide electronic confirmation on EBP platform T-1 day prior to settlement. Details of anchor investors and their corresponding quantum allocated should be disclosed in the placement memorandum and term sheet. Remaining portion of the issue is open for bidding by eligible participants on EBP platform, with anchor investors allowed to participate if identified as such. Pay-in obligations must be fulfilled within T+1 or T+2 days, with non-compliance resulting in temporary access ban for 30 days (for allottees and anchor investors) or 7 days (for arrangers).
+9.4: An arranger will be debarred from EBP platforms for seven days following three unpaid obligations on any Exchange-Based Platform (EBP).
+9.5-9.6: Pay-ins must be made to an issuer's escrow bank account or through clearing corporations of stock exchanges, with confirmation provided by the escrow bank and reconciliation performed by a Registrar to an Issue. Any pay-in from unapproved accounts will result in bid cancellation and investor debarment for 30 days.
+10: An issuer may withdraw from any issue process at any time, resulting in a seven-day access restriction to EBP platforms. However, this restriction does not apply if the withdrawal is due to reasons specified within the section. Disclosure of estimated cut-off yield to eligible participants on the EBP platform is at the issuer's discretion unless the withdrawal is due to a higher cut-off yield than the estimated one.
+11.1: Issuers are required to open an escrow bank account or have a joint account with a Registrar, providing details of such accounts for pay-ins and setting timelines.
+The section outlines regulatory responsibilities for parties involved in an issuance process. The Issuer is required to open an escrow bank account, provide details of this account to successful bidders, and credit securities after receiving confirmation of funds from the RTA. The RTA undertakes reconciliation between accounts, releases funds after passing instructions to depositories, and informs the Electronic Bidding Platform (EBP) about issue status.
+The EBP is responsible for providing an online bidding platform, ensuring data safety and availability, and updating certain details on its website by specific deadlines. After May 16, 2025, the EBP must disclose estimated cut-off yields if an issuer withdraws due to a higher yield than the estimate. The section also emphasizes standardizing operational procedures across all EBP platforms and ensuring adherence to cooling-off periods and debarment periods.
+The document outlines several regulations for Electronic Book Providers (EBPs) and electronic bid processes. Starting May 16, 2025, various clauses will be updated or revised, including provisions for investor grievances, bid limits, and allotment methods. EBPs must comply with these conditions, upgrade their systems, and communicate the changes to issuers, arrangers, and investors. Additionally, EBP platforms will be subjected to an annual audit by CISA. Chapter VII standardizes timelines for listing securities issued through private placement, requiring in-principle approval from stock exchanges before issuance and listing.
+The section outlines a regulatory update affecting issuers looking to issue and list non-convertible securities or municipal debt securities. To receive in-principle approval from a stock exchange, they must submit a complete application following Regulation 6 of the NCS Regulations or Regulation 4A of the ILDM Regulations. The timelines for issuance and listing on private placement basis are provided in Table 1, with variations between EBP and Non-EBP activities. Key dates include receipt of in-principle approval before the issue open date (applicable from 3 months after May 16, 2025), bidding announcement on or before T-1, ISIN allocation prior to pay-in, finalization of allotments by the issuer, and listing application within timelines specified by the stock exchange(s).
+Regulatory action: Starting from April 1, 2023, for private placement of debt securities, no more than 14 ISINs maturing in a financial year will be allowed per issuer. Additional six ISINs can be used for capital gains tax debt securities by authorized issuers under section 54EC of the Income Tax Act, 1961.
+Affected parties: Issuers of debt securities and authorized issuers under section 54EC of the Income Tax Act, 1961.
+Beginning April 1, 2023, for debt securities issued, the maximum number of ISINs maturing in a financial year is fourteen, with nine allocated for plain vanilla and structured debt securities, and five for market-linked debt securities. Issuers of only structured/market-linked debt securities are allowed up to nine ISINs per year. Previously, the limit was seventeen ISINs for all types of debt securities up to March 31, 2023. The limits may be reviewed periodically for potential reduction in fragmentation. Certain debt securities were previously given dispensations from ISIN restrictions until June 30, 2020, and the conversion of partly paid debt securities does not count as an additional ISIN.
+- Regulatory amendment allows conversion of partly paid debt securities to fully paid without counting as an additional ISIN, applicable from December 31, 2023 (Section 4A).
+- The limit of ISINs maturing in a financial year for unlisted ISINs converted to listed is excluded from the prescribed limit, also effective from December 31, 2023 (Section 4A).
+- In case of exercised call/put options on debt securities, issuers may issue additional debt securities for the remaining period. The aggregate count of outstanding ISINs in the financial year should not exceed the prescribed limit (Section 5).
+- Structured/ market linked debt securities maturity is reckoned based on original maturity date, not embedded options (Section 6).
+- Debt obligations arising from ISIN restrictions can be honored through staggered or bullet maturity repayments (Section 7.1), different payment options for various investor categories (Section 7.2), and modifications in terms/structure of issue follow the procedure in Regulation 59 of SEBI LODR Regulations, 2015 (Section 9.3).
+- Issuers must disclose the basis of payment when announcing multiple record dates (Section 9.4).
+- An amendment to the AoA/charter/ constitution of the issuer is required for compliance with regulation 49(a) of SEBI NCS Regulations, 2021 to carry out consolidation and re-issuance of debt securities (Section 8).
+- Issuers must submit a statement within fifteen days from the end of every half year to the stock exchange and depository containing data in a prescribed format (Section 9. Reporting and Monitoring, issuers).
+The section outlines reporting and monitoring requirements for issuers of debt securities. Starting April 15 and October 15, issuers must submit a half-yearly report to stock exchanges and depositories in the specified format. Any modifications in issue terms should be communicated immediately. Stock exchanges and depositories are required to upload these reports on their respective websites and databases within prescribed timelines. Issuers who violate these provisions may be reported to SEBI within 30 working days of the half-year end. The document also includes an illustration for easier understanding, detailing the applicability of the circular for various issuance scenarios post April 1, 2023. Lastly, it mentions that stock exchanges and depositories must communicate the implementation status of these provisions to SEBI. This chapter is related to Green Debt Securities under Regulation 12A of SEBI NCS Regulations, 2021.
+The regulatory update pertains to the implementation of Green Debt Securities under Chapter IX. This affects entities issuing or planning to issue green debt securities, as they must now disclose environmental sustainability objectives, project eligibility processes, and proposed deployment of proceeds in their offer documents. Additionally, within two years, they are required to appoint an independent third-party reviewer/certifier on a 'comply or explain' basis. Post-issuance, listed green debt securities issuers must provide annual reports detailing the utilization of proceeds and unutilized amounts, with external auditor verification.
+This regulatory update concerns Green Debt Securities. From April 1, 2023, issuers must disclose detailed information about unutilized proceeds and project allocations in their Annual Reports. Additionally, they are required to provide quantitative and qualitative environmental impact measures, methods used for preparation, mitigation plan deployment details, and environmental impact reporting on a project-by-project basis. A third-party reviewer/certifier is to be appointed for post-issue management and verification of internal tracking and impact reporting, with compliance expected within two years from the issue date. The issuer must also maintain a decision-making process for determining project eligibility, ensure compliance with greenwashing avoidance guidelines, and utilize proceeds only for stated purposes as disclosed in offer documents. Partial or non-compliance reasons and steps to achieve full compliance should be explained in the annual report. The BRSR essential indicators format is provided in Annexure IX-A.
+The document outlines regulatory requirements for energy, water, and emissions reporting. Key actions include disclosing energy consumption (electricity, fuel, other sources), energy intensity, water withdrawal sources, and volumes. It also requires details on air emissions (NOx, SOx, PM, POP, VOC, HAP) and greenhouse gas emissions (Scope 1 and 2). Additionally, the document requests information about waste management, specifically total waste generated and recovered through recycling or reusing operations for various categories. An external agency assessment is optional for some sections. There is no mention of specific deadlines.
+Regulatory body is seeking details on various waste categories (A-H) generated, their recovery methods, and disposal. It also requires information on waste management practices, usage of hazardous chemicals, and compliance with environmental laws in India, such as the Water Prevention and Control of Pollution Act, Air Prevention and Control of Pollution Act, and Environment Protection Act. Entities are asked to specify if any independent assessment has been conducted by an external agency, and to provide details on projects' environmental impact assessments. Lastly, entities must provide a break-up of energy consumption from renewable and non-renewable sources and water discharge details with treatment levels. Compliance with these regulations is expected.
+The document outlines regulatory requirements for reporting water discharge and withdrawal in areas of water stress, Scope 3 emissions, ecological impacts, and business continuity plans.
+- Water Reporting: Facilities must provide details of water source, withdrawal, consumption, and discharge, including treatment levels (if any). Deadline not specified.
+- Scope 3 Emissions: Entities must report total Scope 3 emissions and intensity in CO2 </t>
         </is>
       </c>
     </row>

--- a/data/output_excels/SEBI.xlsx
+++ b/data/output_excels/SEBI.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Circulars" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Consulatation Paper" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Master circular" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Press Release" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Consultation Paper" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Circulars</t>
+          <t>Press Release</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -501,49 +500,107 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>December</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Minimum information to be provided to the Audit Committee and Shareholders for approval of Related Party Transactions</t>
+          <t>Shri Sandip Pradhan takes charge as Whole Time Member, SEBI</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760356560260.pdf</t>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764949323355.pdf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1760356560260.pdf</t>
+          <t>1764949323355.pdf</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Circulars/2025/October/1760356560260.pdf</t>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/December/1764949323355.pdf</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No. 80/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>"SEBI has relaxed the requirements for approving related party transactions by listed entities from September 12, 2025. This change aims to facilitate ease of doing business and applies to transactions below 1% of annual consolidated turnover or INR 10 crores. Specific information requirements have been outlined in SEBI's recent circular, available on their website. Listed entities must comply with the specified format and RPT Industry Standards for certain sections of LODR Regulations. The circular also outlines additional details required for shareholder approval of related party transactions."</t>
+          <t>"Former Director General of Income Tax (Investigation), Shri Sandip Pradhan, has been appointed as Whole Time Member at SEBI in Mumbai, effective December 4, 2025. His responsibilities encompass departments pertaining to Market Intermediaries, Alternative Investment Funds, Foreign Portfolio Investors, Information Technology, Office of Investor Assistance and Education, and National Institute of Securities Market."</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SEBI has approved a proposal for relaxation in the minimum information required for approval of related party transactions by listed entities, effective from September 12, 2025. This change aims to facilitate ease of doing business. The new requirements only apply to transactions that do not exceed 1% of annual consolidated turnover or INR 10 crores (whichever is lower), and specific information requirements have been outlined in SEBI's Circular dated June 26, 2025 and Annexure-13A.
-This section details an exemption for related party transactions not exceeding Rs. One Crore during a financial year, as per the RPT Industry Standards. From the effective date of this circular, listed entities must comply with the specified format and RPT Industry Standards for Part A and Part B of Section III-B of LODR Regulations. This circular takes immediate effect and is available on SEBI's website. The document also outlines minimum information requirements for audit committee approval and shareholder approval of related party transactions.
-Shareholders are requested to approve proposed Related Party Transactions (RPT). Alongside the requirements under the Companies Act 2013, the notice must provide additional details: management's summary, justification for transaction benefits, specifics on loans/investments, valuation report availability, counter-party turnover representation, and other relevant information. No deadlines are specified in this text.</t>
+          <t>Shri Sandip Pradhan, former Director General of Income Tax (Investigation), has assumed the role of Whole Time Member at SEBI in Mumbai on Dec 4, 2025. He will manage departments related to Market Intermediaries, Alternative Investment Funds, Foreign Portfolio Investors, Information Technology, Office of Investor Assistance and Education, National Institute of Securities Market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SEBI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Press Release</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Niveshak Shivir to be held on December 06, 2025 in the city of Jaipur, Rajasthan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764675345527.pdf</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1764675345527.pdf</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Press Release/2025/December/1764675345527.pdf</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No.78/2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>"The SEBI, along with several market institutions, is hosting the fourth 'Niveshak Shivir' in Jaipur on December 6, 2025. The event will focus on transferring unpaid dividends, updating KYC and nominations, and resolving pending IEPFA claims. Shareholders or their representatives should bring official identification for entry at Swarn Mahal – The Banquet Hall in Jaipur from 10 AM to 4 PM."</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>The SEBI and IEPFA, along with Market Infrastructure Institutions (NSE, BSE, NSDL, CDSL) and Registrar and Transfer Agents (KFIN Technologies Limited, MUFG Intime India Private Limited, Bigshare Services Pvt. Ltd., Datamatics Business Solutions Ltd., Purva Sharegistry India Pvt. Ltd., etc.), are organizing the fourth "Niveshak Shivir" at Jaipur on December 6, 2025. The event aims to facilitate the transfer of unpaid dividends (up to 7 years), assist with KYC and nomination updates, and resolve pending IEPFA claims. The venue is Swarn Mahal – The Banquet Hall in Jaipur, Rajasthan, from 10 AM to 4 PM. Shareholders or their representatives are advised to bring official government identification documents for entry.</t>
         </is>
       </c>
     </row>
@@ -558,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +693,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Consulatation Paper</t>
+          <t>Consultation Paper</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -644,286 +701,179 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>December</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Consultation paper on proposed amendment to certain provisions of SEBI (LODR) Regulations, 2015 to facilitate transfer of securities transferred prior to April 1, 2019 and simplify the process of dematerialization of shares</t>
+          <t>Consultation Paper on Review of Master Circular for Foreign Portfolio Investors (FPIs) and Designated Depository Participants (DDPs)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760699641194.pdf</t>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764943412112.pdf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1760699641194.pdf</t>
+          <t>1764943412112.pdf</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consulatation Paper/2025/October/1760699641194.pdf</t>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consultation Paper/2025/December/1764943412112.pdf</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No. 12/2019</t>
+          <t>No. 4/15/2016, No. 10/06/2010, No 1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>"SEBI has proposed amendments to simplify the dematerialization process for securities transferred before April 1, 2019. A special window is open from July 7, 2025, to January 6, 2026, for re-lodging transfer deeds. The proposal also aims to eliminate the need for a Letter of Confirmation, reducing unnecessary steps and inconvenience for investors. Public comments are invited by November 7, 2025."</t>
+          <t>"SEBI has consolidated and updated the Foreign Portfolio Investor (FPI) guidelines, affecting FPIs, DDPs, and market stakeholders. Key changes include new provisions for dealing with securities after registration expiry, obligations for DDPs, KYC requirements, investment conditions, participation in various derivatives segments, and amendments regarding ETCDs, REITs, InvITs, AIFs, corporate bonds under default, FPI reclassification to FDI, write-off of securities, disclosure frameworks, ODI subscribers' KYC norms, and suspicious transactions reporting. The Common Application Form (CAF) for FPIs registration, bank account opening, and PAN application has been introduced, effective from January 27, 2020."</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SEBI has proposed an amendment to Regulation 40(1) regarding the transfer of securities, aimed at facilitating the transfer of securities transferred prior to April 1, 2019. This amendment is intended to simplify the process of dematerialization of securities. A special window for re-lodgement of transfer deeds has been opened from July 7, 2025, to January 6, 2026, to address cases where transfer deeds were previously rejected or returned due to deficiencies, and was extended due to investor requests and panel recommendations.
-The document discusses a proposed amendment to Regulation 40(1) of LODR Regulations. This change aims to facilitate investors who executed transfer deeds before April 1, 2019, to get physical securities transferred and subsequently dematerialised. The proposal includes an exception for these investors, with a sunset clause to ensure maximum dematerialisation. A circular will be issued for the amendment's implementation. Additionally, there's a proposal to eliminate the need for a Letter of Confirmation (LOC) for investor service requests. This change would allow securities to be issued only in dematerialised form, with the RTA/listed company verifying and processing service requests and issuing LOCs within 30 days. The LOC is valid for 120 days from the date of issue. These changes are proposed to take effect after June 7, 2025, and will be in place until a specified sunset period.
-The regulatory proposal aims to streamline the dematerialization process of securities by eliminating the issuance of Letter of Confirmation (LOC). Instead, depositories will develop a system for RTAs/listed entities to credit securities directly to investors' demat accounts after due diligence. This change is intended to reduce unnecessary steps and inconvenience for investors, with a deadline for public comments on the proposal by November 7, 2025.
-Proposal to amend certain provisions of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015 is introduced. This affects the transfer of securities, including requirements for mandatory dematerialization, identity verification, signature verification, and advertisement for objections. Public comments are invited by 07-11-2025 through the provided link. In case of technical issues, emails can be sent to consultationMIRSD@sebi.gov.in. The proposal was issued on 17-10-2025.
-Regulatory action: Amendment for Transfer-cum-Transmission cases where transfer deeds were executed before April 1, 2019 but not lodged, and the transferee has passed away.
-Impacted parties: Listed entities, Registered Transfer Agents (RTA), claimants, and transferors.
-Critical dates: Documents must be submitted by June 23, 2025; securities will be under lock-in for one year from the date of registration of transfer, and information related to transfers will be disclosed on company and stock exchange websites for six months from the date of transfer.
-Regulatory document outlines an indemnity agreement between a company (M/s___________) and a buyer (I/We), effective under the Companies Act, 1956 and 2013. The agreement concerns securities purchased from sellers Mr. _______________ and ______________. To transfer securities into their name(s), the buyer has submitted the necessary documents with the Company/RTA. In exchange for this transfer approval, the buyer agrees to indemnify the company and its management, officers, staff, and the RTA from any harm, loss, damage, claims, demands, suits, actions, litigation, proceedings, costs, charges, or expenses that may arise as a result of the transfer. This indemnity bond is equivalent to the value of the shares at the prevailing market price with all accrued benefits. The agreement binds the buyer's legal heirs, successors, administrators, and assigns. Signed by the Indemnifier in the presence of a Magistrate/Notary Public and witnesses on the specified date and place.</t>
+          <t>SEBI proposes to update and simplify the Foreign Portfolio Investors (FPI) guidelines, consolidating circulars issued since May 2024. The updated FPI draft has been released for public consultation, with comments due by December 5, 2025. Submit comments via https://www.sebi.gov.in/sebiweb/publiccommentv2/PublicCommentAction.do?doPublicCo [Annexure-I]. The updated FPI affects Foreign Portfolio Investors (FPIs), Designated Depository Participants (DDPs), and other market stakeholders, including depositories, stock exchanges, and clearing corporations.
+Section 4 performs a rescission of a previously enacted policy, but actions taken under it prior to the rescission will remain valid and enforceable. Any applications made before the rescission under the old policy will be deemed as if they were made under the new policy. The rescission is issued using powers conferred under Section 11(1) of the Act, 1992, with the aim to protect investor interests in securities and regulate the securities market.
+The document also details various regulations pertaining to Foreign Portfolio Investors (FPIs), including registration procedures, post-registration activities, and conditions for NRI, OCI, and RI constituents. It's available on the SEBI website under "Legal framework."
+This document outlines several key changes regarding Foreign Portfolio Investors (FPIs). Notably, there are new provisions related to dealing with securities after registration expiry, obligations and reporting requirements for Depository Participants (DDPs), Know Your Client (KYC) requirements including verification of beneficial owners and data security, investment conditions such as monitoring of investment limits, off-market transfer of securities, risk management framework, and participation in various derivatives segments. Critical dates or deadlines are not explicitly mentioned.
+This regulatory document outlines several key actions affecting Foreign Portfolio Investors (FPIs). Notably, it includes amendments regarding FPIs' participation in Exchange Traded Commodity Derivatives (ETCDs) and investments in Real Estate Investment Trusts (REITs), Infrastructure Investment Trusts (InvITs), Alternative Investment Funds (AIFs), corporate bonds under default, and the procedure for reclassifying FPI investment to Foreign Direct Investment (FDI).
+The document also covers the write-off of securities held by FPIs, dealing with written-off securities, additional disclosure frameworks for FPIs, Know Your Client (KYC) norms for Offshore Derivative Instruments (ODI) subscribers, and reporting of suspicious transactions. Critical dates mentioned include timelines for granular disclosures (48-49), implementation of certain circulars by December 17, 2024 (57), and various annexures detailed from page 58 onwards.
+The Government of India has introduced a Common Application Form (CAF) for Foreign Portfolio Investors (FPIs) registration, bank account opening, and Permanent Account Number (PAN) application, effective from January 27, 2020. Simplified registration procedures are available for certain categories of FPI applicants, allowing them to fill either the full CAF or an abridged version with only unique fields. The deadline for providing KYC related documents and other required information is not specified in this section.
+The section outlines updates for Foreign Portfolio Investor (FPI) registration, affecting insurance companies registered as FPIs and new applicants from specified categories. The changes include an option for abbreviated application forms with either auto-populated or disabled remaining fields, and a consent mechanism for using the provided information. Implementation standards for simplified registration are to be formulated by designated entities in consultation with SEBI. Upon submission, the Depository Participant shall verify the applicant's PAN, conduct due diligence, and check eligibility based on country of origin. The FPI will receive a certificate of registration upon approval. Deadline or critical dates were not specified.
+Regulatory update: The FPI Regulations, 2019, specify conditions for Foreign Portfolio Investors (FPI). Entities from FATF member countries are considered appropriately regulated. Non-resident Indians (NRI), Overseas Citizen of India (OCI), and Resident Indians (RI) requirements include obtaining declarations and meeting eligibility criteria. A regulatory check ensures the applicant is regulated by a securities market or banking regulator. Previously rejected FPI applications can be reconsidered, provided deficiencies are rectified. A database of FPI applicants is maintained, with reasons for rejection recorded. The contribution of NRI, OCI, and RI individuals in an applicant's corpus should not exceed 25% individually and 50% collectively.
+Regulatory update: The FPI (Foreign Portfolio Investor) Regulations have imposed conditions for NRI, OCI, and RI individuals in applicants. An individual's contribution should not exceed 25% of the total, while the aggregate contribution from all such individuals should be below 50%. Contributions from RI individuals must be made through the Liberalized Remittance Scheme and be in global funds with minimal Indian exposure. NRIs, OCIs, and RI individuals cannot control the applicant unless it's an 'offshore fund' or controlled by a regulated Investment Manager. Non-compliant FPIs risk being prohibited from making fresh purchases and must liquidate their positions within specified periods. Quarterly reports on NRI/OCI/RI compliance are required via the SEBI Intermediary Portal. For IFSC-based FPIs, regulations may be relaxed if they declare an intent to have 50% or more aggregate contribution from NRIs, OCIs, and RI individuals at registration and provide necessary documents.
+The document outlines new requirements for Foreign Portfolio Investors (FPIs). Non-individual FPIs controlled by one or more NRI, OCI, or RI individuals, or where these individuals hold 50% or more ownership or economic interest, must provide PAN or suitable declarations along with identity documents as specified in Para 7.1.2 for their Direct Dealing Participants (DDPs). Any changes to these details are considered a 'Type II' material change.
+Exemptions from these requirements apply to FPIs set up as funds in IFSCs and regulated by IFSCA, provided they comply with certain conditions such as pooling of investments, pari passu and pro-rata rights, diversification of investments, and having an independent Investment Manager or Fund Manager. These exemptions were inserted on June 27, 2024 (vide Circular SEBI/HO/AFD/AFD-POD-2/P/CIR/2024/89).
+1. The Investment Manager or Fund Manager for Foreign Portfolio Investors (FPI) must be an Asset Management Company of a Mutual Fund registered with the Board and sponsored by a bank regulated by RBI, or its IFSC-based subsidiary or branch (effective immediately).
+2. FPIs whose Legal Entity Identifier (LEI) code has expired or lapsed will have their accounts blocked for further purchases in the securities market until renewal. Custodians must submit quarterly reports on LEI compliance and physical documents for verification (deadline: 15 calendar days after each quarter). Registration may be granted based on scanned copies of documents, with physical verification to follow (effective immediately). Specific guidelines have been issued for certain entities including banks, insurance or reinsurance entities, and pension funds.
+Starting from 10.4, appropriately regulated entities can invest on behalf of clients as Category II FPIs (Foreign Portfolio Investors), provided they are listed under FPI Regulations, 2019. This investment is allowed in addition to proprietary investments with separate registration as Category I FPI. Conditions include clients being individuals or family offices and not dealing on behalf of third parties. KYC procedures vary based on the FATF member status of the FPI's home country. Quarterly client details must be provided to DDP. Also, entities engaging multiple investment managers can obtain multiple FPI registrations, each mentioning the name of the Investment Manager. In case of MIM structures, registration details need not be repeated unless there's a change in information. Registration renewal requires paying applicable fees and informing any changes.
+Registration continuance for Foreign Portfolio Investors (FPI) is detailed in the document. FPIs must renew registration every three years by paying applicable fees and providing any necessary updates to their Depository Participants (DDPs). A 15-day advance notice is required for registration renewal. Failure to pay fees before expiry allows for reactivation within 30 days, subject to KYC and Anti Money Laundering/Countering the Financing of Terrorism (AML/CFT) compliance. If registration expires and isn't re-activated, FPIs can sell securities within 180 days, but no fresh purchases are allowed. Additionally, if an FPI undergoes a name change, it must provide documentation to the DDP. The name change undertaking should confirm that it is not due to acquisition, merger, demerger, restructuring, change of ownership or control.
+A regulatory update affects Foreign Portfolio Investors (FPIs). Key actions include name changes (providing necessary documents and undertaking it's a mere name change), surrendering registration (requiring a 'No Objection Certificate' from the Board, confirming certain conditions, and closing accounts), and changing local custodians/DDPs (transferor DDP issuing NOC to transferee, FPI transferring accounts within 30 days). FPIs with segregated portfolios investing in India are required to provide Banker's Alley information prior to investing or making any subsequent changes. The update was inserted on June 05, 2024. FPIs must apply for an appropriate change in PAN records within seven working days after receiving the new registration certificate.
+- Effective June 5, 2024, Foreign Portfolio Investors (FPI) with segregated portfolios must provide Business Identifier Codes (BO) information before investing in India through new funds or any subsequent changes.
+- FPIs registered under a particular category or sub-category who fail to comply with applicable eligibility requirements will be reclassified and may not purchase fresh securities until additional KYC requirements are met. The FPI can sell or hold existing securities for the duration of its existing registration block or 180 days from the notification of change.
+- Changes in material information by FPIs must be reported to the DDP within seven working days, with supporting documents provided within 30 days. Changes such as a jurisdiction alteration, name changes due to acquisitions, mergers, or restructuring are considered 'Type I' material changes and may impact eligibility for registration, ability to make fresh purchases, and privileges or exemptions under the regulatory framework.
+The Securities and Exchange Board of India (SEBI) has made modifications on June 5, 2024, affecting Foreign Portfolio Investors (FPIs). Key changes include updates to compliance status, reclassification from Category I to Category II, additions to investor groups, changes in investment managers' eligibility, and breaches of certain criteria. FPIs are required to report any 'Type II' material changes within 30 days and face potential fresh registration if they experience 'Type I' material changes. The Deadline for reporting material changes is within 30 days after the change occurs. If an FPI fails to report a material change in a timely manner, SEBI will be informed by the Depository Participant (DDP) for appropriate action. Additionally, FPIs may have their securities blocked from fresh purchases or sales if they breach prescribed limits, fail to submit additional KYC documents, change their compliance status, or fail to pay fees.
+- SEBI has introduced amendments affecting Foreign Portfolio Investors (FPIs). These changes include regulations for breach of contribution limits, non-submission of KYC documents, change in compliance status, non-payment of fees, and non-disclosure of granular details.
+- FPIs are required to dispose of securities within specified time periods with financial disincentives if they fail to do so due to regulatory restrictions. Any remaining unsold securities after the additional 180-day period will be deemed written off, ending the FPI's beneficial interest including voting rights.
+- Provisions for Government Securities (GS)-FPIs include the ability to transition between regular and GS-FPI status, with specific requirements for divesting holdings and closing demat accounts. Implementation standards for dealing with securities held by FPIs will be formulated by CDSSF in consultation with SEBI.
+- Section 10.3 allows GS-FPI to transition to a regular FPI by requesting their DDP, providing additional information and documents as required for regular FPIs. The transition becomes effective from its effective date. (10.3)
+- A standard operating procedure for implementing provisions related to GS-FPI is to be formulated and updated by CDSSF in consultation with SEBI. (10.4)
+- DDPs must have necessary infrastructure, manuals, and mechanisms for monitoring and evaluating their controls, systems, procedures, and safeguards. (11.1-11.3)
+- Monthly and annual reports, including FPI registration applications, fees collected, internal audit reports, and FPI General Information are to be submitted by DDPs to SEBI as per specified formats and deadlines. (12.1-12.4)
+- Investor Charter and complaint data must be published on DDP websites with specified formats and deadlines. (13.1-13.2)
+- KYC documentation requirements for Category I and II FPIs are detailed in the following sections, including undertakings to provide documents upon demand by regulators or law enforcement agencies. (1.0-1.1)
+Regulatory update: For Foreign Portfolio Investors (FPIs), new KYC requirements are outlined. FPI Category I from high-risk jurisdictions must comply with Category II standards. Category II registered under Regulation 5(b)(i) needs to provide KYC documentation equivalent to Category I, but with specific BO details format. Non-PAN related KYC documents can be relied upon by a local custodian from the same financial group, as long as they are regulated in FATF member countries. Prospectus and Information Memorandum are acceptable for constitutional documents. FATCA/CRS documentation is required at account opening, and PAN verification is possible online. UBOs, senior management, authorized signatories, UN entities, and multilateral agencies exempt from Indian taxes do not require PAN. Board Resolution and ASL are not necessary if there's no physical document exchange between the local broker and FPI or its regulated investment manager in a FATF member country. Existing KYC requirements for FPIs should also apply to securities accounts of FDI, FVCI/DR, and FCCB accounts/entities. If all information required in the KYC Form (Part I and II) is provided in the form itself, separate forms are not needed. Regulators must be provided relevant documents upon demand by regulators or law enforcement agencies. Bank accounts of FPIs can share KYC documents with banks through their authorized representative, along with proper records of transfer. Beneficial Owners (BOs) must be identified according to Rule 9 of the Prevention of Money-laundering (Maintenance of Records) Rules, 2005, and a list provided in the specified format. No deadline or critical dates are mentioned in this section.
+The regulatory update requires enhanced Know Your Customer (KYC) procedures for Foreign Portfolio Investors (FPIs). Starting from FPIs with complex structures, beneficial owners are to be identified based on both ownership and control. For FPIs registered in "high risk jurisdictions," a lower materiality threshold of 10% applies. Category I FPIs exempted from providing beneficial owner details unless they come from high-risk jurisdictions. Periodic KYC reviews are required annually for most FPIs, but every 3 years for those registered under Regulation 5(a)(i) and regulated entities. Data security measures should be implemented throughout the process.
+Key regulatory action: Updates to Know Your Customer (KYC) procedures for Foreign Portfolio Investors (FPI). High-risk FPIs require re-registration every 3 years, while non-high risk FPIs annually. Data security measures are implemented, including secure storage of personal information and consent-based downloads. Intermediaries can access KYC data on a need-to-know basis with authentication. In case of account closure, FPI or intermediary must inform authorities to delink the KYC records. Records must be kept for at least five years, and physical attestation can be replaced by digital SWIFT mechanism. Translations are required for foreign language documents.
+Regulatory update affecting Foreign Portfolio Investors (FPIs):
+1. Translation of foreign identity or address documents into English is required.
+2. The name and address of the FPI applicant on Form must match with documentary proof submitted, with exceptions for non-individual clients.
+3. Power of Attorney authorizes Global/Local Custodian to fill the Form.
+4. In-person verification is not applicable for non-individual clients, and individual clients can undergo IPV through web camera.
+5. Intermediaries may rely on information from reliable public sources while collecting documents or information required for an FPI.
+6. Notary Public, officials of Multinational Foreign Banks, or RBI-regulated bank officials are authorized to attest the documents.
+7. Proof of Identity and Address is required: Passport, driving license, utility bills, bank statements, etc. are acceptable.
+8. Monitoring of investment limits at investor group level: Depositories will capture, maintain, and monitor FPI investments belonging to the same investor group to ensure they do not exceed 10% of the total paid-up equity capital in a listed or to-be-listed company. Reports of FPI responsible for breach of investment limit must be submitted to SEBI within two working days.
+1.4-1.6: For Foreign Portfolio Investors (FPI), their relatives and entities within an investor group are considered collectively. The term "relative" refers to relatives defined in Section 2 of the Companies Act, 2013. FPIs can request aggregate holding information from Depositories before investing.
+2.1: A system for monitoring foreign investment limits in listed Indian companies is being implemented at Depositories. Listed companies must appoint a Designated Depository to lead this process. Stock Exchanges will provide necessary company data, and the companies themselves will provide additional details about their FPI, NRI, and other foreign investments. The information is stored in a Company Master database, with the ability for Depositories to request further details if needed.
+Regulatory update affects listed Indian companies and foreign portfolio investors (FPI). Companies are required to maintain detailed ISIN records of investments in other Indian firms, store information in a Company Master database, and report changes in company details to their Designated Depository. FPIs must report trades on a T+1 basis. A Red Flag Alert is activated when the aggregate NRI, FPI investment, or sectoral cap limits are 3% or less than 3%, triggering display of available investment headroom on depositories and stock exchanges' websites. These monitoring processes occur daily on an end-of-day basis.
+Regulatory action: Activation of the "red flag" for identified companies triggers a five-day disinvestment period for foreign investors if they breach aggregate NRI limits, FPI limits, or sectoral caps. The proportionate disinvestment methodology is used to spread the disinvestment across all foreign net buyers on the day of the breach. Foreign investor identification and instructions for disinvestment are issued by depositories, with custodians or AD Banks facilitating the process. The breach announcement and subsequent disinvestment deadline apply five trading days from the settlement of trades, including those made on T+1 day.
+Regulatory update allows Foreign Portfolio Investors (FPIs) to request off-market transfers of assets between FPIs operating under a common PAN, and also to sell unlisted, illiquid, suspended, or delisted shares. Breach of investment limits requires disinvestment within 5 trading days; failure to do so will be referred to the Securities and Exchange Board of India (SEBI). Disinvestment timelines are outlined in the document. If foreign shareholding falls below permissible limits due to sales by other FPIs, the original FPIs must still disinvest within the given timeframe. Off-market transfers of securities for relocation to IFSC may be approved by Depository Participants (DDPs) after due diligence, and are not affected by taxation provisions. FPIs are permitted to acquire "to be listed" shares and invest in both listed and unlisted warrants. Short selling of securities is not explicitly mentioned in this section.
+Regulatory update: FPIs (Foreign Portfolio Investors) can acquire "to be listed" shares through various methods including IPOs, FPOs, rights issues, private placements, or corporate actions like mergers/demergers. They can also invest in both listed and unlisted warrants if the securities underlying are listed/to-be-listed shares (Section 4). Short selling is prohibited except under Securities Lending &amp; Borrowing or other specified frameworks, with sales only allowed after settlement (Section 5.1). FPIs' investment in primary market issuances is limited to less than ten percent of a company's total paid-up equity capital on a fully diluted basis (Section 6.1). Compliance checks are conducted by Registrars and Transfer Agents, with depositories validating investor groups to ensure no breach of investment limits (Section 6.2). FPIs are subject to a risk management framework as specified by SEBI (Section 8.1). Investments in government and corporate debt securities follow RBI directions (Section 9.1, 9.2). FPIs must undertake at least 10% of their total secondary market trades in corporate debt securities quarterly (Section 9.3), and investments in debt-oriented mutual fund schemes are considered equivalent to corporate debt securities (Section 9.4). FPI investments in corporate debt securities are subject to the Corporate Debt Investment Limit announced by RBI, with auctions conducted if the limit is exceeded (Section 10.3).
+Depositories instruct custodians to halt FPI purchases in corporate debt securities. Auctions for unutilized CDIL will be conducted by Stock Exchanges (starting with BSE) within 2 hours on the second trading day following intimation from depositories, alternating between NSE and BSE. Auctions will only occur if free limit is INR 100 crore or more, but if it remains less for 15 consecutive days, an auction will be held on the 16th day regardless. FPIs cannot bid for more than 10% of the limits being auctioned and must use allocated limits within 10 trading days or return to the free pool. Subsequent auctions occur every 12 trading days, subject to certain conditions. Position limits for FPIs in Exchange Traded Interest Rate Futures (IRF) are INR 5,000 crore on an aggregate basis, with no single FPI able to acquire a net long position exceeding INR 1,800 crore at any point. Auctioned position limits and government securities position limits do not affect the IRF limit calculation. Position limits in IRFs vary based on maturity bucket, with trading member level position limits at 10% of Open Interest or INR 12 billion (whichever is higher) for 8-11 years maturity bucket, and client level position limits at 3% of Open Interest or INR 4 billion (whichever is higher) for Category II FPIs (individuals, family offices, corporates).
+Key regulatory action: Position limits are set for Foreign Portfolio Investors (FPIs) in Interest Rate Futures (IRFs), categorized by maturity buckets and investor type. The limits can be calculated based on Open Interest or a monetary value, with different thresholds for Category I &amp; II FPIs (excluding individuals, family offices, and corporates) at the trading member level, and Category II FPIs (individuals, family offices, and corporates) at the client level. Exchanges are required to monitor and enforce these limits, with daily reporting of positions on their websites. If 90% of the limit is utilized, alerts will be published. Any excess positions must be squared off within five trading days or by contract expiry, whichever is earlier, if a threshold limit is breached.
+Effective dates: Not specified, but related provisions are dated December 30, 2024, and August 04, 2023, with potential future amendments or supersessions.
+Section 16.3 requires Foreign Portfolio Investors (FPIs) to disclose their offer terms to Debenture Trustees when acquiring bonds from existing holders under default conditions. All FPI investments in such bonds will be subject to the current corporate debt limit (Section 16.4).
+Section 17 outlines the procedure for reclassifying FPI investments as Foreign Direct Investment (FDI), effective Nov 11, 2024. This applies when an FPI, along with its investor group, reaches or exceeds 10% of a company's total paid-up equity capital on a fully diluted basis and seeks reclassification.
+Section 18 details the process for writing off securities by FPIs in certain circumstances, such as invalid registration or surrender of registration. The written-off securities are transferred to an escrow account within 30 days (Sections 18.1 and 19). Securities listed on a single exchange go to the escrow account operated by that exchange's empanelled broker, while others go to the escrow account operated by NSE (Section 19.2).
+The Securities and Exchange Board of India (SEBI) has inserted a new policy via circular SEBI/HO/AFD/AFD-PoD-2/P/CIR/2024/77 dated June 05, 2024. This policy affects listed securities on various stock exchanges. Within 30 days of receipt, write-off shall be credited to the Investor Protection and Education Fund (IPEF). Securities listed exclusively on one Stock Exchange must be transferred to that exchange's escrow account operated by an empanelled broker. Balance securities will be transferred to NSE's escrow account. The empanelled broker shall attempt to sell the securities at market price, and disposal of listed equity securities will occur through regular trading platforms excluding block deal windows. Proceeds from sales will be transferred to IPEF. The disposal of written-off securities follows the operational mechanism adopted by the Stock Exchanges and is monitored by them. Periodic monitoring of brokers' efforts for securities disposal is conducted, with the option for empanelling a different broker if necessary. Quarterly reports on escrow account transactions and IPEF transfers are submitted to SEBI.
+In Part E – Additional Disclosure Framework, FPIs that meet specific criteria are required to provide granular details of all entities holding ownership, economic interest, or control in the FPI, up to the level of natural persons, without any threshold. This applies when an FPI holds more than 50% (33% for certain cases) of Indian equity assets under management in a single corporate group or exceeds INR 50,000 crore in equity AUM in the Indian markets. These granular details will be provided to respective Depository Participants (DDPs) in the format specified in the Standard Operating Procedure (SOP). The SOP will be framed and adopted by DDPs and Custodians, in consultation with SEBI, and updated from time to time.
+Regulatory update: The Securities and Exchange Board of India (SEBI) has amended the Foreign Portfolio Investors (FPI) Regulations, effective from various dates between June 27, 2024, and April 09, 2025. These changes expand the definition of FPI holdings to include equity positions and ODI investments, with certain exceptions for broad-based pooled structures, government or government-related investors, and more. Exemptions from granular disclosures are provided under specific criteria listed in the update.
+Key regulatory action: Amendments to SEBI regulations for Foreign Portfolio Investors (FPIs) regarding liquidation of excess investments, new FPIs, winding down FPIs, University Funds and Endowments, investor group AUM thresholds for disclosure exemptions, and criteria for FPIs with majority Indian equity AUM in a corporate group.
+Affected parties: FPIs, University Funds and Endowments, investor groups, ODI subscribers.
+Critical dates: August 01, 2024 (insertion of new provision), April 09, 2025 (modification), December 17, 2024 (modification).
+Regulatory update: SEBI has set new guidelines for Foreign Portfolio Investors (FPIs). If an apex company of a corporate group has no identified promoter, FPIs can't hold more than 50% of their Indian equity assets in that group, excluding the apex company. The depositories will monitor the 3% limit in the apex company daily, with public disclosure if breached before trading starts. FPIs investing above 50% must realign within 10 trading days or make additional disclosures. Exemptions and disclosure timelines are provided based on investment thresholds. Failure to provide granular details of all entities in the FPI can result in registration invalidation and exit from the Indian securities market within 180 days. The new rules took effect on December 17, 2024.
+1. Starting from December 17, 2024, Foreign Portfolio Investors (FPI) must disclose detailed ownership information on a full look-through basis, or risk having their registration invalidated, resulting in a 180-day liquidation period. During this time, investee companies will restrict FPI's voting rights to their actual shareholding or 50% of equity Assets Under Management (AUM).
+2. FPIs are required to issue Offshore Derivative Instruments (ODIs) through a separate dedicated registration and can only have securities, not derivatives, as underlying. FPIs cannot hedge their ODIs with derivative positions on Indian Stock Exchanges. A 20% threshold is used to determine if a derivative instrument is an ODI, except for custom baskets which are always treated as ODIs regardless of the percentage of Indian component. Synthetic short activities using ODIs are prohibited.
+Regulatory update: Starting from December 17, 2024, Foreign Portfolio Investors (FPIs) are prohibited from engaging in synthetic short activities that mimic short selling in Indian securities. FPIs will also need to comply with investment restrictions outlined in Regulation 20(7), treating ODI subscribers as a single entity if they have common ownership over 50% or common control (regulation 1.7.1). Investment restrictions apply to the aggregate of FPI investments and ODI positions held in Indian companies (regulation 20).
+Know Your Customer (KYC) norms are introduced for ODI subscribers, requiring relevant documents such as Constitutive Documents, Proof of Address, List of Senior Management, etc. FPIs must maintain these KYC documents and identify and verify Beneficial Owners on a look-through basis (regulations 2.1 - 2.3). A risk-based KYC review should be done annually for high-risk ODI subscribers and every three years for others (regulation 2.5).
+Additionally, FPIs must report complete transfer trails of ODIs monthly, reconfirm ODI positions semi-annually, conduct periodic operational evaluations, and submit annual certificates to the Board regarding their controls, systems, and procedures related to ODIs (regulations 3.1 - 3.4). Suspicious transaction reports, if any, must be filed with the Indian Financial Intelligence Unit in relation to ODIs issued by FPIs (regulation 2.6).
+Key Policy Action: Enhanced Disclosure Framework for Foreign Portfolio Investors (FPI) subscribers is proposed. This includes the submission of detailed ownership information by ODI issuing FPIs from their ODI subscribers who exceed certain thresholds or hold a majority in a single Indian corporate group.
+Affected Entities: ODI issuing FPIs, ODI subscribers with significant equity positions in Indian markets.
+Critical Dates/Deadlines: Monthly reports to be submitted by the 10th of every month. The detailed mechanism for validation of conformance is to be spelt out in a Standard Operating Procedure (SOP) to be made public and updated from time to time.
+Regulatory Update:
+- Pooled investment vehicles, University Funds, and University related Endowments (registered or eligible for registration as Category I FPI) are subj</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Verticals</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SubCategory</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>IssueDate</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>PDF_URL</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>File Name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Path</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Indexing</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Summary</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>EmbeddingText</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>SEBI</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Master circular</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Consultation Paper</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2025</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-10-15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Master Circular for issue and listing of Non-convertible Securities, Securitised Debt Instruments, Security Receipts, Municipal Debt Securities and Commercial Paper</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.sebi.gov.in/sebi_data/attachdocs/oct-2025/1760532257519.pdf</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1760532257519.pdf</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Master circular/2025/October/1760532257519.pdf</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>No.
-CIR/MIRSD/4/2011, No
-0, No
-0, No.
-1, No. 1, No
-49, No. 1, No. 1, No.
-9</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>"SEBI has issued a consolidated document updating regulations for various types of securities and debt instruments, affecting multiple financial entities such as issuers, stock exchanges, depositories, credit rating agencies, bankers, and intermediaries. Key changes include new regulations for green debt securities to combat greenwashing, provisions for the ASBA mechanism in public issues, and modifications for bond trading platforms. The document also introduces a Liquidity Window facility for investors in debt securities and updates on nominee directors, contributions to the Settlement Guarantee Fund, Legal Entity Identifier (LEI) for issuers, and Online Bond Platform Providers (OBPPs). Deadlines are provided in specific annexures."</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On October 15, 2025, a consolidated document was issued to update and streamline regulations for Non-convertible Securities, Securitised Debt Instruments, Security Receipts, Municipal Debt Securities, and Commercial Paper. The update incorporates provisions from multiple circulars issued till June 30, 2025, effectively rescinding earlier ones in this area. The affected parties include various financial entities such as issuers, stock exchanges, depositories, credit rating agencies, and bankers. All relevant entities are directed to disseminate the provisions on their websites, comply with the conditions laid out, and implement the necessary systems for adherence.
-The regulatory document directs Recognized Stock Exchanges, Depositories, intermediaries, issuers, and other stakeholders to disseminate the provisions of the circular on their websites, comply with its conditions, implement necessary systems, make changes to bye-laws if needed, communicate with stakeholders, and monitor compliance. The directive is issued under various sections of the Act, 1992, SEBI regulations from 2008 to 2021, to protect investor interests and promote securities market development. This circular can be found on the SEBI website.
-Chapter IX introduces new regulations for green debt securities to combat greenwashing, affecting issuers of such securities. Deadlines or critical dates are detailed in Annexure-IX-C-A (on page 94) and Annexure-IX-C-B (on page 97). Other chapters cover various aspects of debt securities, fundraising, reporting, and listing (Chapters X-XVIII), with additional details provided in numerous annexures.
-This document introduces several regulatory updates and frameworks affecting Online Bond Platform Providers (OBPPs), trade execution platforms for certain securities, nominee directors, contributions to the Settlement Guarantee Fund, Legal Entity Identifier (LEI) for issuers, a Liquidity Window facility for investors in debt securities, and several abbreviations related to finance and securities. Deadlines or critical dates are not specified within this provided section.
-Regulatory Update: The provisions outlined in Chapter I apply to public issues of securities under SEBI NCS Regulations (2021), ILDM Regulations (2015), and SDI Regulations (2008). Investors can utilize the ASBA mechanism by writing bank account numbers or mentioning UPI ID for payments up to Rs. 5 lakh per application. Applications can be submitted through SCSBs or intermediaries, with funds being blocked upon bid submission on the stock exchange platform.
-Starting November 1, 2024 (per circular dated October 18, 2024), individual investors can submit bid-cum-application forms through various methods: intermediaries, SCSBs, or stock exchange platforms. For applications up to Rs. 5 Lakh, UPI is mandatory for funding blocking via intermediaries and optional for SCSBs and stock exchange platforms. All applications up to Rs. 5 Lakh through intermediaries must use UPI. Investors can also submit forms online using the linked online trading, demat, and bank account facility. SCSBs and intermediaries are responsible for uploading forms to the stock exchange bidding platform, providing acknowledgements, and ensuring sufficient, clearly demarcated funds for ASBA applications. SCSBs must have a separate account in another SEBI-registered SCSB for applying in public issues using the ASBA facility on their own account.
-- SEBI advises SCSBs to have separate accounts for ASBA applications and ensure available funds. (3.7)
-- Stock exchanges allow modification of bid details, provide real-time validation, update demand data, and facilitate status checking, alerts, and operational procedures. (4.1, 4.2, 7.1, 7.4)
-- UPI, an instant payment system by NPCI, allows instant money transfer between bank accounts using a unique payment address. A Sponsor Bank is appointed to push mandate collect requests and/or payment instructions of investors into the UPI. (5.2, 5.3)
-- The details of investor and bid entered on the stock exchange platform are validated with depositories in real time. Intermediaries provide guidance on UPI usage, and disclose commission, processing fees, and operational procedures. (6.1, 7.2, 7.3)
-- Character length for each field of the schedule forwarded by intermediaries is uniformly prescribed by stock exchanges, following a specific format. (8)
-- The bidding and validation process requires investors to have/create a UPI ID before application submission. (9.1a)
-The document outlines updates for UPI (Unified Payments Interface) processes in relation to stock exchange bidding. Investors are now required to have a UPI ID before submitting applications, with bid details including linked UPI ID submitted via intermediaries or stock exchange apps/websites. Upon validation of PAN and demat account details, investors will receive an SMS about their application submission.
-Post-validation, sponsor banks will request investors to authorize blocking of funds equivalent to the bid amount. This mandate must be accepted by 5 pm on the third working day following the bidding day, except for the last day when it should be done by 5 pm the next working day. Investors can modify certain details but not both DP ID or Client ID and PAN simultaneously. Mismatch bids will be processed till 1pm on T+1 day. The facility to reinitiate/resend UPI mandates is available only until 5 pm on the day of bidding.
-- Until 5 pm on the day of bidding, investors can re-initiate or resend UPI mandates for block requests. (h)
-- Upon successful validation of block requests, funds equivalent to the application amount will be blocked in investors' accounts, and status updates will be shared with sponsor banks, stock exchanges, and intermediaries for reconciliation post issue closure. (i-k, 10.1-10.4)
-- The allotment of securities occurs within five working days after issue closure, followed by credit to investors' accounts and unblocking of excess funds. (10.2, 10.5)
-- Issuers use an online platform provided by stock exchanges to receive applications for public debt securities and maintain a single escrow account. Registrars have an interface with the stock exchange platform for updates. (11.1a-c, 11.2a)
-The section outlines key actions related to the issuance of non-convertible securities, municipal debt securities, and securitized debt instruments. Stock exchanges are required to provide an online platform for applications, including UPI mode, with a cap of INR 5 lakh. Intermediaries are responsible for accurate data entry and addressing investor grievances. The issuer shall appoint a sponsor bank as a conduit between stock exchanges and NPCI. All activities from issue closure to listing must be completed within T+6 working days, as detailed in Table 2.
-Regulatory update: Listing timeline for public issues of debt securities and NCRPS reduced from T+6 to T+3 working days, effective immediately for one year, and permanently thereafter. This change aims to provide faster access to funds for issuers and investors. The revised timeline is optional during the transition period, with regulation 37 (2) of NCS Regulations applying after T+6 only in cases where T+3 was chosen but not met.
-The provisions of regulation 37 (2) will only apply after T+6 working days during the voluntary use of the T+3 listing timeline, starting from November 01, 2024. This applies to public issues of debt securities and NCRPS. Mandatory application begins on November 01, 2025. The T+3 timeline for listing must be disclosed in Offer Documents for all public issues. An indicative timeline for activities related to listing is provided, detailing various stages from bid modification to trading commencement.
-Regulatory update: The amendment requires investors, including residents and NRIs, to submit listing applications for public issues to stock exchanges. Stock exchanges will grant trading permission upon application. Trading commences on T+1 day, with specific deadlines for initiation, completion, and fund transfer by T+2 day and T+3 day. The application form details are provided in Annexure IIA and IIB for residents and NRIs respectively. Certain categories of persons, such as minors without a guardian, foreign entities, and those ineligible to contract under applicable statutory/regulatory requirements, are not eligible to participate in the issue. Application forms must be completed in full, in English, and errors in data entry are the responsibility of the applicant. Minimum application quantities are specified in the Prospectus.
-Regulatory update: Changes to application procedures for Bond issues. Affects applicants, with requirements including use of specified Bonds in applications, attestation of non-Indian language thumb impressions and signatures by Magistrates or Notaries Public, use of valid and active Demat ID, Client ID, and PAN, submission of Applications in single or joint names (with specific orders), use of ASBA Accounts for electronic applications, and rejection of applications without PAN numbers. Critical dates not specified. Applicants must ensure eligibility as per terms of the Shelf &amp; Tranche with Prospectus and applicable laws. Physical application submission to be made through SCSBs or Stock Exchange members. Application Forms must bear relevant stamps and contain correct ASBA Account numbers and UPI IDs. Revision/modification of applications during Issue Period is allowed, with original upload date considered for Allotment purposes.
-Regulatory update for bond applications: HUFs applying through Karta must specify their name in the Application Form as 'XYZ Hindu Undivided Family applying through PQR'. All applicants should select the Series of Bonds they wish to apply for. ASBA Applicants need to provide correct details of their ASBA Account and submit forms at designated branches or with syndicate members, not directly to banks or the company.
-Rejected applications include those without full payment, incorrect PAN, partnership firm submissions under individual names, applications by persons not competent to contract, GIR number instead of PAN, applications by OCBs, insufficient funds in ASBA Account, applications prohibited by SEBI or other authorities, untimely UPI Mandate approval, incomplete documents, incorrect signatures, unmatched Depository records, and applications uploaded after the Issue Closing.
-Key regulatory action: The document outlines restrictions on applications for Bond issues, affecting various applicants such as those prohibited by SEBI, those with suspended demat accounts, and debarred persons from the capital markets. It also specifies methods for allotment based on the date of application, with preference given to first-come, first-served, and proportional allotment in case of oversubscription.
-Critical dates: The Issue Closing Date is mentioned, with extensions possible by stock exchanges as applicable. The deadline for applicants to deliver their Application Forms is prescribed, along with instructions regarding the ASBA process. In case of oversubscription, the methodology for allotment includes a cutoff date one day prior to oversubscription.
-Regulatory update: In case of equal entitlement among multiple applicants, a draw of lots will determine the basis of allotment (Section iii). If an applicant has applied for multiple Series of Bonds, allocation will be proportional to each applied Series (Section e(i)). The Company retains discretion to close the Issue early (Section iv). Investors can withdraw their applications at any time. Minimum subscription is 75%, and if not met, funds are unblocked with a potential interest penalty (Terms of the Issue, Point 1). The abridged prospectus format is specified in Annexure IID of the document, with certain formatting requirements (Chapter IIB, Section 1).
-The revised format for Abridged Prospectus will apply to all public issues from October 1, 2023. Key changes include using larger font sizes, specific formatting for heads and sub-heads, tabular formats, and pointers for efficient understanding. Important information not included in designated sections can be added under 'any other information'. QR codes will be added to the documents for easy access to the prospectus. The format is detailed in Annexure – IID of the document. Cash flow conventions, disclosure of cash flows, and other related disclosures in the offer document must follow specific guidelines as per Regulation 14, Clause 3.3.34 Schedule I SEBI NCS Regulations, 2021.
-1. For non-convertible securities, coupon/dividend payments falling on Sundays or holidays will be made on the next working day, while future payment dates remain as per original schedule. (2020-25)
-2. In case of debt securities maturity, redemption proceeds will be paid on the previous working day if the maturity date falls on a Sunday or holiday. (No specific dates mentioned)
-3. A uniform methodology for interest/dividend calculations in leap years is established, with 366 days considered as the denominator. (Applicable throughout tenor of security)
-4. In case of a public issue, additional disclosures are required for provisions related to fictitious applications, board declarations, reservations, utilization details, promoter/director benefits, and material contracts. (Applicable for public issues)
-5. For NBFCs, HFCs, or PFIs, specific disclosures are needed when the objects of a public issue involve loans to group companies. (Not specified)
-Section IV of the SEBI NCS Regulations, 2021 introduces additional disclosure requirements for Non-Banking Finance Companies (NBFCs), Housing Finance Companies (HFCs), and Public Financial Institutions (PFI) in public issues. Key disclosures include details about loan policies, classifications of loans, exposures to top borrowers, and non-performing assets. NBFCs/HFCs are also required to provide portfolio summaries and disclose off-balance sheet items. These disclosures are to be made in a prescribed format and are based on draft templates for loan classifications, sectoral exposure, and loan ticket sizes. No specific deadlines were mentioned in the provided text.
-Section 4.4 introduces a requirement for loan denomination based on ticket size at origination, affecting all loans and borrowers. No specific date or deadline is mentioned.
-Section 4.5 involves classifying borrowers geographically, focusing on top 5 states with the highest AUM percentage. Again, no critical dates are provided.
-In Section 4.6, details of loans overdue and classified as non-performing according to RBI's stipulations are presented. Tables show movement of gross NPA (Non-Performing Assets) and provisions for NPA across various time periods. No specific dates or deadlines are mentioned.
-Section 4.7 provides segment-wise gross NPA, differentiating between retail and wholesale sectors, with details on A Mortgages, Gold loans, Vehicle finance, MFI, MSME, Real estate, Promoter funding, and others. No critical dates or deadlines are provided.
-Section 4.8 discusses the residual maturity profile of assets and liabilities, following RBI's format and including categories such as deposit, advances, investment, borrowing, and FCA/FCL (Foreign Currency Assets/Liabilities). No specific dates or deadlines are mentioned.
-Chapter V covers the denomination of issuance and trading of Non-convertible Securities, introducing changes for private placement of debt securities and non-convertible redeemable preference shares with a face value of either Rs. One lakh (for general cases) or Rs. Ten lakhs (for shelf placements from January 1, 2023). Various conditions and credit enhancements are also outlined in this section for securities issued on private placement basis at a face value of Rs. Ten Thousand. No critical dates or deadlines are mentioned.
-This section outlines changes to credit enhancements allowed in certain securities, effective July 03, 2024, as per a circular dated the same day. Acceptable enhancements include guaranteed bonds, partially guaranteed bonds, SBLC-backed securities, debt backed by pledge of shares or other assets, guaranteed pooled bond issuance (PBI), obligor/co-obligor structures, cross default guarantee structures, and debt backed by payment waterfall/escrow with full guarantee from a third party.
-For these enhanced securities, Credit Rating Agencies must verify that support is unconditional, irrevocable, and legally enforceable till all obligations are paid to investors, and the support provider has a lower probability of default compared to the issuer until the instruments are outstanding.
-Additionally, for a shelf placement memorandum or General Information Document valid as of the circular's effective date, issuers may now raise funds through tranche placement memorandum or Key Information Document at a face value of Rs. Ten Thousand, provided at least one Merchant Banker is appointed to carry out due diligence.
-Effective January 1, 2023 (unless otherwise stated), eligible participants on the EBP Platform include Qualified Institutional Buyers (QIBs) as per SEBI ICDR Regulations, 2018 and authorized non-QIBs by issuers. Issues of securities made through the platform now include:
-- Debt securities and NCRPS for private placements, shelf issues, or subsequent issues exceeding Rs. 20 crore in a financial year (previously Rs. 50 crore), per SEBI NCS Regulations, 2021.
-- Issues of debt securities and NCRPS by issuers existing for less than three years, regardless of issue size, as per Clause 3.3.10 c. of Schedule I to the SEBI NCS Regulations, 2021.
-- Specific non-equity instruments issued by banks/NBFCs listed under Chapter V of the SEBI NCS Regulations, 2021, regardless of issue size.
-- Private placement of securitized debt instruments, security receipts, CPs, CDs, REIT units, SM REIT units, and InvIT units by issuers desiring to access the EBP platform.
-- Issues of debt securities, NCRPS, and municipal debt securities on private placement basis below Rs. 20 crore may also utilize the EBP Platform.
-Issuers are obligated to comply with relevant laws, provide Placement Memorandum and term sheet to the platform at least two working days prior to issue opening date (three days for first-time issuers), and disclose details of issue size, green shoe portion, etc., in these documents.
-The regulatory document outlines changes effective May 16, 2025, affecting private placements of municipal debt securities or CPs/CDs. Issuers may now access the Electronic Book Building (EBP) platform for such transactions, regardless of issue size. Green shoe options are capped at five times the base issue size. Key details disclosed in the Placement Memorandum and term sheet include size, interest rate parameters, bid opening/closing dates, minimum bid lot, bidding method, allotment method, settlement method, and settlement cycle. Issuers must also disclose estimated cut-off yield at least one hour prior to bidding and provide post-issue details on the EBP platform. Participants are required to enroll with EBP for one-time access, with KYC verification handled by various parties depending on investor type. All eligible participants should have access to issue-specific information.
-Key regulatory action: Changes in bidding process for investors on Electronic Book Building (EBP) platform.
-Affects: Non-QIB investors, QIB investors, arrangers, and EBPs.
-Critical dates or deadlines: Bids must be placed between 9 a.m. to 5 p.m., one day before bidding announcement, with a minimum of one hour bidding window. Issuer can provide details of eligible participants not later than one hour before the bidding start time. Changes in bidding date or time are allowed for a maximum of two times.
-Eligible participants must confirm they do not use unfair access tools and EBPs must ensure no preferential access to any bidder. Bids cannot exceed Rs.100 crore or 5% of the base issue size (whichever is lower), with foreign portfolio investors able to bid through their custodians.
-Arrangers can bid on behalf of multiple participants, but must disclose details about proprietary bids, client bids, and consolidated bids to EBP at the time of bidding. Bidding takes place on an anonymous order-driven system, with bids made in price, coupon (in %), spread in basis points (bps), or a combination thereof. Modification or cancellation of bids is allowed during the bidding period.
-Regulatory update: The document outlines changes to bidding procedures for investors. Bidders can place multiple bids with coupon/ spread during the bidding period, which can be cancelled or modified only during the bidding period (except in the last 10 minutes). In the final 10 minutes, only downward revisions of coupon/ spread or upward modifications of price, or upward revisions in bid size are allowed. All bids have an audit trail and are disclosed on the EBP platform after bidding. The allotment and settlement amount for bidders are based on various factors including coupon specified by the issuer, coupon discovered during bidding, and pro-rata basis if multiple bids are at the cut-off coupon/ price/ spread. Anchor portions within the base issue size can be allocated by the issuer at their discretion, with limits set based on instrument rating (not exceeding 30% for AAA, 40% for AA+/AA, 50% for A+/A- and others). There is no bidding for anchor portion on the EBP platform.
-Regulatory update: The maximum allocation to anchor investors in an issue is limited to 30% (as per May 16, 2025 circular). Anchor investors must provide electronic confirmation on EBP platform T-1 day prior to settlement. Details of anchor investors and their corresponding quantum allocated should be disclosed in the placement memorandum and term sheet. Remaining portion of the issue is open for bidding by eligible participants on EBP platform, with anchor investors allowed to participate if identified as such. Pay-in obligations must be fulfilled within T+1 or T+2 days, with non-compliance resulting in temporary access ban for 30 days (for allottees and anchor investors) or 7 days (for arrangers).
-9.4: An arranger will be debarred from EBP platforms for seven days following three unpaid obligations on any Exchange-Based Platform (EBP).
-9.5-9.6: Pay-ins must be made to an issuer's escrow bank account or through clearing corporations of stock exchanges, with confirmation provided by the escrow bank and reconciliation performed by a Registrar to an Issue. Any pay-in from unapproved accounts will result in bid cancellation and investor debarment for 30 days.
-10: An issuer may withdraw from any issue process at any time, resulting in a seven-day access restriction to EBP platforms. However, this restriction does not apply if the withdrawal is due to reasons specified within the section. Disclosure of estimated cut-off yield to eligible participants on the EBP platform is at the issuer's discretion unless the withdrawal is due to a higher cut-off yield than the estimated one.
-11.1: Issuers are required to open an escrow bank account or have a joint account with a Registrar, providing details of such accounts for pay-ins and setting timelines.
-The section outlines regulatory responsibilities for parties involved in an issuance process. The Issuer is required to open an escrow bank account, provide details of this account to successful bidders, and credit securities after receiving confirmation of funds from the RTA. The RTA undertakes reconciliation between accounts, releases funds after passing instructions to depositories, and informs the Electronic Bidding Platform (EBP) about issue status.
-The EBP is responsible for providing an online bidding platform, ensuring data safety and availability, and updating certain details on its website by specific deadlines. After May 16, 2025, the EBP must disclose estimated cut-off yields if an issuer withdraws due to a higher yield than the estimate. The section also emphasizes standardizing operational procedures across all EBP platforms and ensuring adherence to cooling-off periods and debarment periods.
-The document outlines several regulations for Electronic Book Providers (EBPs) and electronic bid processes. Starting May 16, 2025, various clauses will be updated or revised, including provisions for investor grievances, bid limits, and allotment methods. EBPs must comply with these conditions, upgrade their systems, and communicate the changes to issuers, arrangers, and investors. Additionally, EBP platforms will be subjected to an annual audit by CISA. Chapter VII standardizes timelines for listing securities issued through private placement, requiring in-principle approval from stock exchanges before issuance and listing.
-The section outlines a regulatory update affecting issuers looking to issue and list non-convertible securities or municipal debt securities. To receive in-principle approval from a stock exchange, they must submit a complete application following Regulation 6 of the NCS Regulations or Regulation 4A of the ILDM Regulations. The timelines for issuance and listing on private placement basis are provided in Table 1, with variations between EBP and Non-EBP activities. Key dates include receipt of in-principle approval before the issue open date (applicable from 3 months after May 16, 2025), bidding announcement on or before T-1, ISIN allocation prior to pay-in, finalization of allotments by the issuer, and listing application within timelines specified by the stock exchange(s).
-Regulatory action: Starting from April 1, 2023, for private placement of debt securities, no more than 14 ISINs maturing in a financial year will be allowed per issuer. Additional six ISINs can be used for capital gains tax debt securities by authorized issuers under section 54EC of the Income Tax Act, 1961.
-Affected parties: Issuers of debt securities and authorized issuers under section 54EC of the Income Tax Act, 1961.
-Beginning April 1, 2023, for debt securities issued, the maximum number of ISINs maturing in a financial year is fourteen, with nine allocated for plain vanilla and structured debt securities, and five for market-linked debt securities. Issuers of only structured/market-linked debt securities are allowed up to nine ISINs per year. Previously, the limit was seventeen ISINs for all types of debt securities up to March 31, 2023. The limits may be reviewed periodically for potential reduction in fragmentation. Certain debt securities were previously given dispensations from ISIN restrictions until June 30, 2020, and the conversion of partly paid debt securities does not count as an additional ISIN.
-- Regulatory amendment allows conversion of partly paid debt securities to fully paid without counting as an additional ISIN, applicable from December 31, 2023 (Section 4A).
-- The limit of ISINs maturing in a financial year for unlisted ISINs converted to listed is excluded from the prescribed limit, also effective from December 31, 2023 (Section 4A).
-- In case of exercised call/put options on debt securities, issuers may issue additional debt securities for the remaining period. The aggregate count of outstanding ISINs in the financial year should not exceed the prescribed limit (Section 5).
-- Structured/ market linked debt securities maturity is reckoned based on original maturity date, not embedded options (Section 6).
-- Debt obligations arising from ISIN restrictions can be honored through staggered or bullet maturity repayments (Section 7.1), different payment options for various investor categories (Section 7.2), and modifications in terms/structure of issue follow the procedure in Regulation 59 of SEBI LODR Regulations, 2015 (Section 9.3).
-- Issuers must disclose the basis of payment when announcing multiple record dates (Section 9.4).
-- An amendment to the AoA/charter/ constitution of the issuer is required for compliance with regulation 49(a) of SEBI NCS Regulations, 2021 to carry out consolidation and re-issuance of debt securities (Section 8).
-- Issuers must submit a statement within fifteen days from the end of every half year to the stock exchange and depository containing data in a prescribed format (Section 9. Reporting and Monitoring, issuers).
-The section outlines reporting and monitoring requirements for issuers of debt securities. Starting April 15 and October 15, issuers must submit a half-yearly report to stock exchanges and depositories in the specified format. Any modifications in issue terms should be communicated immediately. Stock exchanges and depositories are required to upload these reports on their respective websites and databases within prescribed timelines. Issuers who violate these provisions may be reported to SEBI within 30 working days of the half-year end. The document also includes an illustration for easier understanding, detailing the applicability of the circular for various issuance scenarios post April 1, 2023. Lastly, it mentions that stock exchanges and depositories must communicate the implementation status of these provisions to SEBI. This chapter is related to Green Debt Securities under Regulation 12A of SEBI NCS Regulations, 2021.
-The regulatory update pertains to the implementation of Green Debt Securities under Chapter IX. This affects entities issuing or planning to issue green debt securities, as they must now disclose environmental sustainability objectives, project eligibility processes, and proposed deployment of proceeds in their offer documents. Additionally, within two years, they are required to appoint an independent third-party reviewer/certifier on a 'comply or explain' basis. Post-issuance, listed green debt securities issuers must provide annual reports detailing the utilization of proceeds and unutilized amounts, with external auditor verification.
-This regulatory update concerns Green Debt Securities. From April 1, 2023, issuers must disclose detailed information about unutilized proceeds and project allocations in their Annual Reports. Additionally, they are required to provide quantitative and qualitative environmental impact measures, methods used for preparation, mitigation plan deployment details, and environmental impact reporting on a project-by-project basis. A third-party reviewer/certifier is to be appointed for post-issue management and verification of internal tracking and impact reporting, with compliance expected within two years from the issue date. The issuer must also maintain a decision-making process for determining project eligibility, ensure compliance with greenwashing avoidance guidelines, and utilize proceeds only for stated purposes as disclosed in offer documents. Partial or non-compliance reasons and steps to achieve full compliance should be explained in the annual report. The BRSR essential indicators format is provided in Annexure IX-A.
-The document outlines regulatory requirements for energy, water, and emissions reporting. Key actions include disclosing energy consumption (electricity, fuel, other sources), energy intensity, water withdrawal sources, and volumes. It also requires details on air emissions (NOx, SOx, PM, POP, VOC, HAP) and greenhouse gas emissions (Scope 1 and 2). Additionally, the document requests information about waste management, specifically total waste generated and recovered through recycling or reusing operations for various categories. An external agency assessment is optional for some sections. There is no mention of specific deadlines.
-Regulatory body is seeking details on various waste categories (A-H) generated, their recovery methods, and disposal. It also requires information on waste management practices, usage of hazardous chemicals, and compliance with environmental laws in India, such as the Water Prevention and Control of Pollution Act, Air Prevention and Control of Pollution Act, and Environment Protection Act. Entities are asked to specify if any independent assessment has been conducted by an external agency, and to provide details on projects' environmental impact assessments. Lastly, entities must provide a break-up of energy consumption from renewable and non-renewable sources and water discharge details with treatment levels. Compliance with these regulations is expected.
-The document outlines regulatory requirements for reporting water discharge and withdrawal in areas of water stress, Scope 3 emissions, ecological impacts, and business continuity plans.
-- Water Reporting: Facilities must provide details of water source, withdrawal, consumption, and discharge, including treatment levels (if any). Deadline not specified.
-- Scope 3 Emissions: Entities must report total Scope 3 emissions and intensity in CO2 </t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Consultation Paper on Review of existing position limits for Trading Members in Equity Derivatives Segment</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.sebi.gov.in/sebi_data/attachdocs/dec-2025/1764859538149.pdf</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1764859538149.pdf</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>/Users/admin/Downloads/Tejomaya_pdfs/Akshayam Data/SEBI/Consultation Paper/2025/December/1764859538149.pdf</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>"SEBI is changing position limits for Trading Members in equity derivatives, transitioning from notional value to Future Equivalent (FutEq) for Index Options and adjusting OI limits based on stab structure. This update applies to all Stock Exchanges and Clearing Corporations except those dealing with Commodity Derivatives. Key changes will take effect from a future date yet to be specified, and no other changes are anticipated in related sections from December 2024. SEBI invites public comments on the proposed circular latest by December 26, 2025."</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SEBI has proposed a revision to the position limits for Trading Members (TMs) in index options, moving from notional value to Futures Equivalent (FutEq) or Delta-adjusted metrics by May 29, 2025. This is aimed at aligning client and TM level position measurement metrics. Public comments on the proposed draft circular are invited latest by December 26, 2025, through an online form or email.
+SEBI has proposed an update to position limits for Trading Members in the Equity Derivatives Segment, effective from a future date yet to be specified. The changes affect all Stock Exchanges and Clearing Corporations except those dealing with Commodity Derivatives. The key adjustments include switching from notional contract value to Future Equivalent (FutEq) metric for Index Options, and setting new OI limits based on the stab structure for the same. TMs will need to monitor positions daily using provided data, and Stock Exchanges/Clearing Corporations are expected to publish an SOP within 60 days of the circular. No other changes are anticipated in related sections from December 2024.
+The Securities and Exchange Board of India (SEBI) has issued a circular effective [DD MM YY], amending monitoring of position limits for the equity derivative segment as per Chapter 5 sections 1.3.2.3, 1.3.2.5, and 2.3.2.3, dated December 30, 2024, and a previous circular on October 15, 2024. The circular is issued to protect investor interests in securities and regulate the securities market under Section 11 (1) of the Act, 1992.</t>
         </is>
       </c>
     </row>
